--- a/Matriz de Inversiones.xlsx
+++ b/Matriz de Inversiones.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victor.bonilla\Desktop\Pruebas R\InversionesAPP\EducMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\InversionesAPP\EducMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8385AE1-A130-4EA2-AFF1-DAD25C87CD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF3740-423F-4B50-BBD8-5956DFEF49E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15466" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de inversiones" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Matriz de inversiones'!$A$3:$M$333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Matriz de inversiones'!$A$3:$M$334</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="1016">
   <si>
     <t>Matriz de Inversiones 2025</t>
   </si>
@@ -3529,6 +3529,12 @@
   </si>
   <si>
     <t>Atención a la salud humana y asistencia social</t>
+  </si>
+  <si>
+    <t>El presidente Nayib Bukele colocó el martes la primera piedra del Aeropuerto del Pacífico, un proyecto insignia de su administración, la cual tiene una inversión de $386.4 millones, en la primera fase</t>
+  </si>
+  <si>
+    <t>https://www.cepa.gob.sv/aeropuerto-del-pacifico/</t>
   </si>
 </sst>
 </file>
@@ -3871,7 +3877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4029,12 +4035,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4047,6 +4047,18 @@
     <xf numFmtId="49" fontId="35" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4269,56 +4281,56 @@
   <dimension ref="A1:P1299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M3"/>
+      <selection activeCell="G355" sqref="G355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.46875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="4" width="29.453125" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="7" width="25.81640625" customWidth="1"/>
-    <col min="8" max="8" width="89.7265625" customWidth="1"/>
-    <col min="9" max="10" width="32.81640625" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="62.7265625" customWidth="1"/>
-    <col min="13" max="16" width="19.26953125" customWidth="1"/>
+    <col min="2" max="4" width="29.46875" customWidth="1"/>
+    <col min="5" max="5" width="24.46875" customWidth="1"/>
+    <col min="6" max="6" width="20.46875" customWidth="1"/>
+    <col min="7" max="7" width="25.8203125" customWidth="1"/>
+    <col min="8" max="8" width="89.703125" customWidth="1"/>
+    <col min="9" max="10" width="32.8203125" customWidth="1"/>
+    <col min="11" max="11" width="19.29296875" customWidth="1"/>
+    <col min="12" max="12" width="62.703125" customWidth="1"/>
+    <col min="13" max="16" width="19.29296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="64"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
       <c r="M2" s="7"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -4368,7 +4380,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="29">
+    <row r="4" spans="1:16" ht="28.7">
       <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
@@ -4410,7 +4422,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="29">
+    <row r="5" spans="1:16" ht="28.7">
       <c r="A5" s="22" t="s">
         <v>22</v>
       </c>
@@ -4452,7 +4464,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="43.5">
+    <row r="6" spans="1:16" ht="33.35">
       <c r="A6" s="22" t="s">
         <v>29</v>
       </c>
@@ -4494,7 +4506,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="29">
+    <row r="7" spans="1:16" ht="28.7">
       <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
@@ -4536,7 +4548,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="29">
+    <row r="8" spans="1:16" ht="28.7">
       <c r="A8" s="22" t="s">
         <v>36</v>
       </c>
@@ -4578,7 +4590,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="29">
+    <row r="9" spans="1:16" ht="28.7">
       <c r="A9" s="22" t="s">
         <v>45</v>
       </c>
@@ -4622,7 +4634,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="29">
+    <row r="10" spans="1:16" ht="28.7">
       <c r="A10" s="22" t="s">
         <v>52</v>
       </c>
@@ -4666,7 +4678,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="29">
+    <row r="11" spans="1:16" ht="28.7">
       <c r="A11" s="22" t="s">
         <v>57</v>
       </c>
@@ -4708,7 +4720,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="29">
+    <row r="12" spans="1:16" ht="28.7">
       <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
@@ -4750,7 +4762,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="29">
+    <row r="13" spans="1:16" ht="28.7">
       <c r="A13" s="22" t="s">
         <v>69</v>
       </c>
@@ -4792,7 +4804,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="29">
+    <row r="14" spans="1:16" ht="28.7">
       <c r="A14" s="22" t="s">
         <v>77</v>
       </c>
@@ -4834,7 +4846,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="29">
+    <row r="15" spans="1:16" ht="28.7">
       <c r="A15" s="22" t="s">
         <v>80</v>
       </c>
@@ -4876,7 +4888,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="49.5">
+    <row r="16" spans="1:16" ht="50">
       <c r="A16" s="22" t="s">
         <v>86</v>
       </c>
@@ -4918,7 +4930,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="49.5">
+    <row r="17" spans="1:16" ht="50">
       <c r="A17" s="22" t="s">
         <v>86</v>
       </c>
@@ -4960,7 +4972,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="29">
+    <row r="18" spans="1:16" ht="28.7">
       <c r="A18" s="22" t="s">
         <v>95</v>
       </c>
@@ -5002,7 +5014,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="49.5">
+    <row r="19" spans="1:16" ht="50">
       <c r="A19" s="22" t="s">
         <v>98</v>
       </c>
@@ -5046,7 +5058,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="33">
+    <row r="20" spans="1:16" ht="33.35">
       <c r="A20" s="22" t="s">
         <v>104</v>
       </c>
@@ -5088,7 +5100,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="29">
+    <row r="21" spans="1:16" ht="28.7">
       <c r="A21" s="22" t="s">
         <v>107</v>
       </c>
@@ -5130,7 +5142,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="29">
+    <row r="22" spans="1:16" ht="28.7">
       <c r="A22" s="22" t="s">
         <v>113</v>
       </c>
@@ -5172,7 +5184,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="29">
+    <row r="23" spans="1:16" ht="28.7">
       <c r="A23" s="22" t="s">
         <v>119</v>
       </c>
@@ -5214,7 +5226,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" ht="29">
+    <row r="24" spans="1:16" ht="28.7">
       <c r="A24" s="22" t="s">
         <v>125</v>
       </c>
@@ -5258,7 +5270,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="29">
+    <row r="25" spans="1:16" ht="28.7">
       <c r="A25" s="22" t="s">
         <v>125</v>
       </c>
@@ -5302,7 +5314,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" ht="29">
+    <row r="26" spans="1:16" ht="28.7">
       <c r="A26" s="22" t="s">
         <v>136</v>
       </c>
@@ -5344,7 +5356,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="29">
+    <row r="27" spans="1:16" ht="28.7">
       <c r="A27" s="22" t="s">
         <v>142</v>
       </c>
@@ -5388,7 +5400,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" ht="29">
+    <row r="28" spans="1:16" ht="28.7">
       <c r="A28" s="22" t="s">
         <v>149</v>
       </c>
@@ -5430,7 +5442,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" ht="43.5">
+    <row r="29" spans="1:16" ht="28.7">
       <c r="A29" s="22" t="s">
         <v>69</v>
       </c>
@@ -5474,7 +5486,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" ht="49.5">
+    <row r="30" spans="1:16" ht="50">
       <c r="A30" s="22" t="s">
         <v>158</v>
       </c>
@@ -5518,7 +5530,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" ht="29">
+    <row r="31" spans="1:16" ht="28.7">
       <c r="A31" s="22" t="s">
         <v>149</v>
       </c>
@@ -5560,7 +5572,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" ht="43.5">
+    <row r="32" spans="1:16" ht="28.7">
       <c r="A32" s="22" t="s">
         <v>163</v>
       </c>
@@ -5602,7 +5614,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="29">
+    <row r="33" spans="1:16" ht="28.7">
       <c r="A33" s="22" t="s">
         <v>166</v>
       </c>
@@ -5644,7 +5656,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="29">
+    <row r="34" spans="1:16" ht="28.7">
       <c r="A34" s="22" t="s">
         <v>169</v>
       </c>
@@ -5686,7 +5698,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="33">
+    <row r="35" spans="1:16" ht="33.35">
       <c r="A35" s="22" t="s">
         <v>172</v>
       </c>
@@ -5728,7 +5740,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="49.5">
+    <row r="36" spans="1:16" ht="33.35">
       <c r="A36" s="22" t="s">
         <v>177</v>
       </c>
@@ -5770,7 +5782,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="29">
+    <row r="37" spans="1:16" ht="28.7">
       <c r="A37" s="22" t="s">
         <v>180</v>
       </c>
@@ -5812,7 +5824,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="29">
+    <row r="38" spans="1:16" ht="28.7">
       <c r="A38" s="22" t="s">
         <v>36</v>
       </c>
@@ -5854,7 +5866,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="29">
+    <row r="39" spans="1:16" ht="28.7">
       <c r="A39" s="22" t="s">
         <v>192</v>
       </c>
@@ -5896,7 +5908,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="49.5">
+    <row r="40" spans="1:16" ht="50">
       <c r="A40" s="22" t="s">
         <v>86</v>
       </c>
@@ -5938,7 +5950,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="29">
+    <row r="41" spans="1:16" ht="28.7">
       <c r="A41" s="22" t="s">
         <v>166</v>
       </c>
@@ -5980,7 +5992,7 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" ht="29">
+    <row r="42" spans="1:16" ht="28.7">
       <c r="A42" s="22" t="s">
         <v>203</v>
       </c>
@@ -6022,7 +6034,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" ht="29">
+    <row r="43" spans="1:16" ht="28.7">
       <c r="A43" s="22" t="s">
         <v>207</v>
       </c>
@@ -6064,7 +6076,7 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="29">
+    <row r="44" spans="1:16" ht="28.7">
       <c r="A44" s="22" t="s">
         <v>213</v>
       </c>
@@ -6108,7 +6120,7 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" ht="29">
+    <row r="45" spans="1:16" ht="28.7">
       <c r="A45" s="22" t="s">
         <v>219</v>
       </c>
@@ -6150,7 +6162,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" ht="33">
+    <row r="46" spans="1:16" ht="33.35">
       <c r="A46" s="22" t="s">
         <v>224</v>
       </c>
@@ -6192,7 +6204,7 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" ht="29">
+    <row r="47" spans="1:16" ht="28.7">
       <c r="A47" s="22" t="s">
         <v>229</v>
       </c>
@@ -6234,7 +6246,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="33">
+    <row r="48" spans="1:16" ht="33.35">
       <c r="A48" s="22" t="s">
         <v>232</v>
       </c>
@@ -6278,7 +6290,7 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="29">
+    <row r="49" spans="1:16" ht="28.7">
       <c r="A49" s="22" t="s">
         <v>235</v>
       </c>
@@ -6322,7 +6334,7 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="29">
+    <row r="50" spans="1:16" ht="28.7">
       <c r="A50" s="22" t="s">
         <v>238</v>
       </c>
@@ -6364,7 +6376,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" ht="29">
+    <row r="51" spans="1:16" ht="28.7">
       <c r="A51" s="22" t="s">
         <v>238</v>
       </c>
@@ -6406,7 +6418,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="29">
+    <row r="52" spans="1:16" ht="28.7">
       <c r="A52" s="22" t="s">
         <v>238</v>
       </c>
@@ -6448,7 +6460,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" ht="29">
+    <row r="53" spans="1:16" ht="28.7">
       <c r="A53" s="22" t="s">
         <v>238</v>
       </c>
@@ -6490,7 +6502,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16" ht="49.5">
+    <row r="54" spans="1:16" ht="50">
       <c r="A54" s="22" t="s">
         <v>86</v>
       </c>
@@ -6532,7 +6544,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16" ht="29">
+    <row r="55" spans="1:16" ht="28.7">
       <c r="A55" s="22" t="s">
         <v>252</v>
       </c>
@@ -6574,7 +6586,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" ht="33">
+    <row r="56" spans="1:16" ht="33.35">
       <c r="A56" s="22" t="s">
         <v>255</v>
       </c>
@@ -6616,7 +6628,7 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16" ht="29">
+    <row r="57" spans="1:16" ht="28.7">
       <c r="A57" s="22" t="s">
         <v>258</v>
       </c>
@@ -6658,7 +6670,7 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16" ht="29">
+    <row r="58" spans="1:16" ht="28.7">
       <c r="A58" s="22" t="s">
         <v>238</v>
       </c>
@@ -6702,7 +6714,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" ht="29">
+    <row r="59" spans="1:16" ht="28.7">
       <c r="A59" s="22" t="s">
         <v>238</v>
       </c>
@@ -6744,7 +6756,7 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" ht="29">
+    <row r="60" spans="1:16" ht="28.7">
       <c r="A60" s="22" t="s">
         <v>267</v>
       </c>
@@ -6788,7 +6800,7 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16" ht="29">
+    <row r="61" spans="1:16" ht="28.7">
       <c r="A61" s="22" t="s">
         <v>272</v>
       </c>
@@ -6830,7 +6842,7 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16" ht="29">
+    <row r="62" spans="1:16" ht="28.7">
       <c r="A62" s="22" t="s">
         <v>238</v>
       </c>
@@ -6872,7 +6884,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16" ht="29">
+    <row r="63" spans="1:16" ht="28.7">
       <c r="A63" s="22" t="s">
         <v>258</v>
       </c>
@@ -6914,7 +6926,7 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:16" ht="29">
+    <row r="64" spans="1:16" ht="28.7">
       <c r="A64" s="22" t="s">
         <v>278</v>
       </c>
@@ -6956,7 +6968,7 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" ht="29">
+    <row r="65" spans="1:16" ht="28.7">
       <c r="A65" s="22" t="s">
         <v>281</v>
       </c>
@@ -7000,7 +7012,7 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" ht="29">
+    <row r="66" spans="1:16" ht="28.7">
       <c r="A66" s="22" t="s">
         <v>284</v>
       </c>
@@ -7042,7 +7054,7 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16" ht="29">
+    <row r="67" spans="1:16" ht="28.7">
       <c r="A67" s="22" t="s">
         <v>290</v>
       </c>
@@ -7084,7 +7096,7 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="1:16" ht="29">
+    <row r="68" spans="1:16" ht="28.7">
       <c r="A68" s="22" t="s">
         <v>293</v>
       </c>
@@ -7126,7 +7138,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16" ht="29">
+    <row r="69" spans="1:16" ht="28.7">
       <c r="A69" s="22" t="s">
         <v>297</v>
       </c>
@@ -7168,7 +7180,7 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" ht="29">
+    <row r="70" spans="1:16" ht="28.7">
       <c r="A70" s="22" t="s">
         <v>300</v>
       </c>
@@ -7210,7 +7222,7 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" ht="29">
+    <row r="71" spans="1:16" ht="28.7">
       <c r="A71" s="22" t="s">
         <v>305</v>
       </c>
@@ -7252,7 +7264,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" ht="29">
+    <row r="72" spans="1:16" ht="28.7">
       <c r="A72" s="22" t="s">
         <v>308</v>
       </c>
@@ -7294,7 +7306,7 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16" ht="33">
+    <row r="73" spans="1:16" ht="33.35">
       <c r="A73" s="22" t="s">
         <v>311</v>
       </c>
@@ -7336,7 +7348,7 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16" ht="29">
+    <row r="74" spans="1:16" ht="28.7">
       <c r="A74" s="22" t="s">
         <v>314</v>
       </c>
@@ -7378,7 +7390,7 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16" ht="29">
+    <row r="75" spans="1:16" ht="28.7">
       <c r="A75" s="22" t="s">
         <v>69</v>
       </c>
@@ -7422,7 +7434,7 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16" ht="29">
+    <row r="76" spans="1:16" ht="28.7">
       <c r="A76" s="22" t="s">
         <v>319</v>
       </c>
@@ -7464,7 +7476,7 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16" ht="29">
+    <row r="77" spans="1:16" ht="28.7">
       <c r="A77" s="22" t="s">
         <v>326</v>
       </c>
@@ -7508,7 +7520,7 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
     </row>
-    <row r="78" spans="1:16" ht="29">
+    <row r="78" spans="1:16" ht="28.7">
       <c r="A78" s="22" t="s">
         <v>329</v>
       </c>
@@ -7550,7 +7562,7 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
-    <row r="79" spans="1:16" ht="49.5">
+    <row r="79" spans="1:16" ht="50">
       <c r="A79" s="22" t="s">
         <v>86</v>
       </c>
@@ -7592,7 +7604,7 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
-    <row r="80" spans="1:16" ht="33">
+    <row r="80" spans="1:16" ht="33.35">
       <c r="A80" s="22" t="s">
         <v>311</v>
       </c>
@@ -7634,7 +7646,7 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
     </row>
-    <row r="81" spans="1:16" ht="16.5">
+    <row r="81" spans="1:16" ht="16.7">
       <c r="A81" s="22" t="s">
         <v>335</v>
       </c>
@@ -7676,7 +7688,7 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
-    <row r="82" spans="1:16" ht="16.5">
+    <row r="82" spans="1:16" ht="16.7">
       <c r="A82" s="22" t="s">
         <v>338</v>
       </c>
@@ -7718,7 +7730,7 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
-    <row r="83" spans="1:16" ht="16.5">
+    <row r="83" spans="1:16" ht="16.7">
       <c r="A83" s="22" t="s">
         <v>344</v>
       </c>
@@ -7760,7 +7772,7 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
-    <row r="84" spans="1:16" ht="43.5">
+    <row r="84" spans="1:16" ht="28.7">
       <c r="A84" s="22" t="s">
         <v>347</v>
       </c>
@@ -7804,7 +7816,7 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
     </row>
-    <row r="85" spans="1:16" ht="29">
+    <row r="85" spans="1:16" ht="28.7">
       <c r="A85" s="22" t="s">
         <v>350</v>
       </c>
@@ -7848,7 +7860,7 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
     </row>
-    <row r="86" spans="1:16" ht="29">
+    <row r="86" spans="1:16" ht="28.7">
       <c r="A86" s="22" t="s">
         <v>69</v>
       </c>
@@ -7892,7 +7904,7 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
     </row>
-    <row r="87" spans="1:16" ht="16.5">
+    <row r="87" spans="1:16" ht="16.7">
       <c r="A87" s="22" t="s">
         <v>355</v>
       </c>
@@ -7934,7 +7946,7 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
     </row>
-    <row r="88" spans="1:16" ht="33">
+    <row r="88" spans="1:16" ht="33.35">
       <c r="A88" s="22" t="s">
         <v>358</v>
       </c>
@@ -7978,7 +7990,7 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
     </row>
-    <row r="89" spans="1:16" ht="16.5">
+    <row r="89" spans="1:16" ht="16.7">
       <c r="A89" s="22" t="s">
         <v>361</v>
       </c>
@@ -8022,7 +8034,7 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
     </row>
-    <row r="90" spans="1:16" ht="16.5">
+    <row r="90" spans="1:16" ht="16.7">
       <c r="A90" s="22" t="s">
         <v>367</v>
       </c>
@@ -8066,7 +8078,7 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
     </row>
-    <row r="91" spans="1:16" ht="49.5">
+    <row r="91" spans="1:16" ht="50">
       <c r="A91" s="22" t="s">
         <v>86</v>
       </c>
@@ -8108,7 +8120,7 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
     </row>
-    <row r="92" spans="1:16" ht="29">
+    <row r="92" spans="1:16" ht="28.7">
       <c r="A92" s="22" t="s">
         <v>69</v>
       </c>
@@ -8152,7 +8164,7 @@
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
     </row>
-    <row r="93" spans="1:16" ht="16.5">
+    <row r="93" spans="1:16" ht="16.7">
       <c r="A93" s="22" t="s">
         <v>377</v>
       </c>
@@ -8194,7 +8206,7 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
     </row>
-    <row r="94" spans="1:16" ht="29.5">
+    <row r="94" spans="1:16" ht="29.35">
       <c r="A94" s="22" t="s">
         <v>383</v>
       </c>
@@ -8236,7 +8248,7 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
     </row>
-    <row r="95" spans="1:16" ht="16.5">
+    <row r="95" spans="1:16" ht="16.7">
       <c r="A95" s="22" t="s">
         <v>386</v>
       </c>
@@ -8278,7 +8290,7 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
     </row>
-    <row r="96" spans="1:16" ht="29.5">
+    <row r="96" spans="1:16" ht="29.35">
       <c r="A96" s="22" t="s">
         <v>389</v>
       </c>
@@ -8320,7 +8332,7 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
     </row>
-    <row r="97" spans="1:16" ht="16.5">
+    <row r="97" spans="1:16" ht="16.7">
       <c r="A97" s="22" t="s">
         <v>392</v>
       </c>
@@ -8362,7 +8374,7 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
     </row>
-    <row r="98" spans="1:16" ht="29">
+    <row r="98" spans="1:16" ht="28.7">
       <c r="A98" s="22" t="s">
         <v>395</v>
       </c>
@@ -8406,7 +8418,7 @@
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
     </row>
-    <row r="99" spans="1:16" ht="29">
+    <row r="99" spans="1:16" ht="28.7">
       <c r="A99" s="22" t="s">
         <v>398</v>
       </c>
@@ -8448,7 +8460,7 @@
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
     </row>
-    <row r="100" spans="1:16" ht="49.5">
+    <row r="100" spans="1:16" ht="50">
       <c r="A100" s="22" t="s">
         <v>401</v>
       </c>
@@ -8488,7 +8500,7 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
     </row>
-    <row r="101" spans="1:16" ht="16.5">
+    <row r="101" spans="1:16" ht="16.7">
       <c r="A101" s="22" t="s">
         <v>403</v>
       </c>
@@ -8530,7 +8542,7 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
     </row>
-    <row r="102" spans="1:16" ht="33">
+    <row r="102" spans="1:16" ht="33.35">
       <c r="A102" s="22" t="s">
         <v>104</v>
       </c>
@@ -8574,7 +8586,7 @@
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
     </row>
-    <row r="103" spans="1:16" ht="16.5">
+    <row r="103" spans="1:16" ht="16.7">
       <c r="A103" s="22" t="s">
         <v>408</v>
       </c>
@@ -8616,7 +8628,7 @@
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
     </row>
-    <row r="104" spans="1:16" ht="16.5">
+    <row r="104" spans="1:16" ht="16.7">
       <c r="A104" s="22" t="s">
         <v>411</v>
       </c>
@@ -8660,7 +8672,7 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
     </row>
-    <row r="105" spans="1:16" ht="43.5">
+    <row r="105" spans="1:16" ht="28.7">
       <c r="A105" s="22" t="s">
         <v>417</v>
       </c>
@@ -8702,7 +8714,7 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
     </row>
-    <row r="106" spans="1:16" ht="16.5">
+    <row r="106" spans="1:16" ht="16.7">
       <c r="A106" s="22" t="s">
         <v>422</v>
       </c>
@@ -8744,7 +8756,7 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
     </row>
-    <row r="107" spans="1:16" ht="16.5">
+    <row r="107" spans="1:16" ht="16.7">
       <c r="A107" s="22" t="s">
         <v>427</v>
       </c>
@@ -8788,7 +8800,7 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
     </row>
-    <row r="108" spans="1:16" ht="33">
+    <row r="108" spans="1:16" ht="28.7">
       <c r="A108" s="22" t="s">
         <v>432</v>
       </c>
@@ -8830,7 +8842,7 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
     </row>
-    <row r="109" spans="1:16" ht="29">
+    <row r="109" spans="1:16" ht="28.7">
       <c r="A109" s="22" t="s">
         <v>435</v>
       </c>
@@ -8874,7 +8886,7 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
     </row>
-    <row r="110" spans="1:16" ht="43.5">
+    <row r="110" spans="1:16" ht="43">
       <c r="A110" s="22" t="s">
         <v>57</v>
       </c>
@@ -8916,7 +8928,7 @@
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
     </row>
-    <row r="111" spans="1:16" ht="29">
+    <row r="111" spans="1:16" ht="28.7">
       <c r="A111" s="22" t="s">
         <v>69</v>
       </c>
@@ -8960,7 +8972,7 @@
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
     </row>
-    <row r="112" spans="1:16" ht="16.5">
+    <row r="112" spans="1:16" ht="16.7">
       <c r="A112" s="22" t="s">
         <v>440</v>
       </c>
@@ -9002,7 +9014,7 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
     </row>
-    <row r="113" spans="1:16" ht="16.5">
+    <row r="113" spans="1:16" ht="16.7">
       <c r="A113" s="22" t="s">
         <v>443</v>
       </c>
@@ -9044,7 +9056,7 @@
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
     </row>
-    <row r="114" spans="1:16" ht="16.5">
+    <row r="114" spans="1:16" ht="16.7">
       <c r="A114" s="22" t="s">
         <v>440</v>
       </c>
@@ -9086,7 +9098,7 @@
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
     </row>
-    <row r="115" spans="1:16" ht="16.5">
+    <row r="115" spans="1:16" ht="16.7">
       <c r="A115" s="22" t="s">
         <v>461</v>
       </c>
@@ -9128,7 +9140,7 @@
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
     </row>
-    <row r="116" spans="1:16" ht="49.5">
+    <row r="116" spans="1:16" ht="50">
       <c r="A116" s="22" t="s">
         <v>461</v>
       </c>
@@ -9172,7 +9184,7 @@
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
     </row>
-    <row r="117" spans="1:16" ht="16.5">
+    <row r="117" spans="1:16" ht="16.7">
       <c r="A117" s="22" t="s">
         <v>314</v>
       </c>
@@ -9214,7 +9226,7 @@
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
     </row>
-    <row r="118" spans="1:16" ht="16.5">
+    <row r="118" spans="1:16" ht="16.7">
       <c r="A118" s="22" t="s">
         <v>453</v>
       </c>
@@ -9258,7 +9270,7 @@
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
     </row>
-    <row r="119" spans="1:16" ht="33">
+    <row r="119" spans="1:16" ht="33.35">
       <c r="A119" s="22" t="s">
         <v>458</v>
       </c>
@@ -9300,7 +9312,7 @@
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
     </row>
-    <row r="120" spans="1:16" ht="46.5">
+    <row r="120" spans="1:16" ht="45">
       <c r="A120" s="22" t="s">
         <v>461</v>
       </c>
@@ -9342,7 +9354,7 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121" spans="1:16" ht="33">
+    <row r="121" spans="1:16" ht="33.35">
       <c r="A121" s="22" t="s">
         <v>466</v>
       </c>
@@ -9384,7 +9396,7 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:16" ht="33">
+    <row r="122" spans="1:16" ht="33.35">
       <c r="A122" s="22" t="s">
         <v>238</v>
       </c>
@@ -9428,7 +9440,7 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
     </row>
-    <row r="123" spans="1:16" ht="29">
+    <row r="123" spans="1:16" ht="28.7">
       <c r="A123" s="22" t="s">
         <v>466</v>
       </c>
@@ -9470,7 +9482,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
     </row>
-    <row r="124" spans="1:16" ht="29">
+    <row r="124" spans="1:16" ht="28.7">
       <c r="A124" s="22" t="s">
         <v>69</v>
       </c>
@@ -9514,7 +9526,7 @@
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
     </row>
-    <row r="125" spans="1:16" ht="29">
+    <row r="125" spans="1:16" ht="28.7">
       <c r="A125" s="22" t="s">
         <v>475</v>
       </c>
@@ -9556,7 +9568,7 @@
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
     </row>
-    <row r="126" spans="1:16" ht="29">
+    <row r="126" spans="1:16" ht="28.7">
       <c r="A126" s="22" t="s">
         <v>475</v>
       </c>
@@ -9598,7 +9610,7 @@
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
     </row>
-    <row r="127" spans="1:16" ht="29">
+    <row r="127" spans="1:16" ht="28.7">
       <c r="A127" s="22" t="s">
         <v>475</v>
       </c>
@@ -9640,7 +9652,7 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
     </row>
-    <row r="128" spans="1:16" ht="49.5">
+    <row r="128" spans="1:16" ht="50">
       <c r="A128" s="22" t="s">
         <v>86</v>
       </c>
@@ -9682,7 +9694,7 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
     </row>
-    <row r="129" spans="1:16" ht="49.5">
+    <row r="129" spans="1:16" ht="50">
       <c r="A129" s="22" t="s">
         <v>86</v>
       </c>
@@ -9724,7 +9736,7 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
     </row>
-    <row r="130" spans="1:16" ht="49.5">
+    <row r="130" spans="1:16" ht="50">
       <c r="A130" s="22" t="s">
         <v>86</v>
       </c>
@@ -9766,7 +9778,7 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
     </row>
-    <row r="131" spans="1:16" ht="49.5">
+    <row r="131" spans="1:16" ht="50">
       <c r="A131" s="22" t="s">
         <v>86</v>
       </c>
@@ -9808,7 +9820,7 @@
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
     </row>
-    <row r="132" spans="1:16" ht="49.5">
+    <row r="132" spans="1:16" ht="50">
       <c r="A132" s="22" t="s">
         <v>86</v>
       </c>
@@ -9850,7 +9862,7 @@
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
     </row>
-    <row r="133" spans="1:16" ht="49.5">
+    <row r="133" spans="1:16" ht="50">
       <c r="A133" s="22" t="s">
         <v>86</v>
       </c>
@@ -9890,7 +9902,7 @@
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
     </row>
-    <row r="134" spans="1:16" ht="16.5">
+    <row r="134" spans="1:16" ht="16.7">
       <c r="A134" s="22" t="s">
         <v>487</v>
       </c>
@@ -9934,7 +9946,7 @@
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
     </row>
-    <row r="135" spans="1:16" ht="16.5">
+    <row r="135" spans="1:16" ht="16.7">
       <c r="A135" s="22" t="s">
         <v>461</v>
       </c>
@@ -9976,7 +9988,7 @@
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
     </row>
-    <row r="136" spans="1:16" ht="49.5">
+    <row r="136" spans="1:16" ht="50">
       <c r="A136" s="22" t="s">
         <v>487</v>
       </c>
@@ -10020,7 +10032,7 @@
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
     </row>
-    <row r="137" spans="1:16" ht="29">
+    <row r="137" spans="1:16" ht="28.7">
       <c r="A137" s="22" t="s">
         <v>238</v>
       </c>
@@ -10062,7 +10074,7 @@
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
     </row>
-    <row r="138" spans="1:16" ht="43.5">
+    <row r="138" spans="1:16" ht="28.7">
       <c r="A138" s="22" t="s">
         <v>496</v>
       </c>
@@ -10104,7 +10116,7 @@
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
     </row>
-    <row r="139" spans="1:16" ht="16.5">
+    <row r="139" spans="1:16" ht="16.7">
       <c r="A139" s="22" t="s">
         <v>499</v>
       </c>
@@ -10146,7 +10158,7 @@
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
     </row>
-    <row r="140" spans="1:16" ht="16.5">
+    <row r="140" spans="1:16" ht="16.7">
       <c r="A140" s="22" t="s">
         <v>499</v>
       </c>
@@ -10188,7 +10200,7 @@
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
     </row>
-    <row r="141" spans="1:16" ht="16.5">
+    <row r="141" spans="1:16" ht="16.7">
       <c r="A141" s="22" t="s">
         <v>499</v>
       </c>
@@ -10230,7 +10242,7 @@
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
     </row>
-    <row r="142" spans="1:16" ht="43.5">
+    <row r="142" spans="1:16" ht="28.7">
       <c r="A142" s="22" t="s">
         <v>506</v>
       </c>
@@ -10272,7 +10284,7 @@
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
     </row>
-    <row r="143" spans="1:16" ht="49.5">
+    <row r="143" spans="1:16" ht="50">
       <c r="A143" s="22" t="s">
         <v>509</v>
       </c>
@@ -10316,7 +10328,7 @@
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
     </row>
-    <row r="144" spans="1:16" ht="29">
+    <row r="144" spans="1:16" ht="28.7">
       <c r="A144" s="22" t="s">
         <v>69</v>
       </c>
@@ -10360,7 +10372,7 @@
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
     </row>
-    <row r="145" spans="1:16" ht="29">
+    <row r="145" spans="1:16" ht="28.7">
       <c r="A145" s="22" t="s">
         <v>169</v>
       </c>
@@ -10404,7 +10416,7 @@
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
     </row>
-    <row r="146" spans="1:16" ht="49.5">
+    <row r="146" spans="1:16" ht="50">
       <c r="A146" s="22" t="s">
         <v>516</v>
       </c>
@@ -10448,7 +10460,7 @@
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
     </row>
-    <row r="147" spans="1:16" ht="16.5">
+    <row r="147" spans="1:16" ht="16.7">
       <c r="A147" s="22" t="s">
         <v>519</v>
       </c>
@@ -10490,7 +10502,7 @@
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
     </row>
-    <row r="148" spans="1:16" ht="29">
+    <row r="148" spans="1:16" ht="28.7">
       <c r="A148" s="22" t="s">
         <v>166</v>
       </c>
@@ -10532,7 +10544,7 @@
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
     </row>
-    <row r="149" spans="1:16" ht="43.5">
+    <row r="149" spans="1:16" ht="28.7">
       <c r="A149" s="22" t="s">
         <v>524</v>
       </c>
@@ -10574,7 +10586,7 @@
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
     </row>
-    <row r="150" spans="1:16" ht="16.5">
+    <row r="150" spans="1:16" ht="16.7">
       <c r="A150" s="22" t="s">
         <v>527</v>
       </c>
@@ -10616,7 +10628,7 @@
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
     </row>
-    <row r="151" spans="1:16" ht="49.5">
+    <row r="151" spans="1:16" ht="50">
       <c r="A151" s="22" t="s">
         <v>530</v>
       </c>
@@ -10658,7 +10670,7 @@
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
     </row>
-    <row r="152" spans="1:16" ht="49.5">
+    <row r="152" spans="1:16" ht="50">
       <c r="A152" s="22" t="s">
         <v>533</v>
       </c>
@@ -10700,7 +10712,7 @@
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
     </row>
-    <row r="153" spans="1:16" ht="16.5">
+    <row r="153" spans="1:16" ht="16.7">
       <c r="A153" s="22" t="s">
         <v>536</v>
       </c>
@@ -10742,7 +10754,7 @@
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
     </row>
-    <row r="154" spans="1:16" ht="16.5">
+    <row r="154" spans="1:16" ht="16.7">
       <c r="A154" s="22" t="s">
         <v>536</v>
       </c>
@@ -10784,7 +10796,7 @@
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
     </row>
-    <row r="155" spans="1:16" ht="16.5">
+    <row r="155" spans="1:16" ht="16.7">
       <c r="A155" s="22" t="s">
         <v>536</v>
       </c>
@@ -10826,7 +10838,7 @@
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
     </row>
-    <row r="156" spans="1:16" ht="16.5">
+    <row r="156" spans="1:16" ht="16.7">
       <c r="A156" s="22" t="s">
         <v>541</v>
       </c>
@@ -10868,7 +10880,7 @@
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
     </row>
-    <row r="157" spans="1:16" ht="33">
+    <row r="157" spans="1:16" ht="33.35">
       <c r="A157" s="22" t="s">
         <v>461</v>
       </c>
@@ -10910,7 +10922,7 @@
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
     </row>
-    <row r="158" spans="1:16" ht="16.5">
+    <row r="158" spans="1:16" ht="16.7">
       <c r="A158" s="22" t="s">
         <v>169</v>
       </c>
@@ -10952,7 +10964,7 @@
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
     </row>
-    <row r="159" spans="1:16" ht="33">
+    <row r="159" spans="1:16" ht="33.35">
       <c r="A159" s="22" t="s">
         <v>548</v>
       </c>
@@ -10994,7 +11006,7 @@
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
     </row>
-    <row r="160" spans="1:16" ht="33">
+    <row r="160" spans="1:16" ht="33.35">
       <c r="A160" s="22" t="s">
         <v>104</v>
       </c>
@@ -11036,7 +11048,7 @@
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
     </row>
-    <row r="161" spans="1:16" ht="16.5">
+    <row r="161" spans="1:16" ht="16.7">
       <c r="A161" s="22" t="s">
         <v>556</v>
       </c>
@@ -11078,7 +11090,7 @@
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
     </row>
-    <row r="162" spans="1:16" ht="16.5">
+    <row r="162" spans="1:16" ht="16.7">
       <c r="A162" s="22" t="s">
         <v>559</v>
       </c>
@@ -11122,7 +11134,7 @@
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
     </row>
-    <row r="163" spans="1:16" ht="16.5">
+    <row r="163" spans="1:16" ht="16.7">
       <c r="A163" s="22" t="s">
         <v>562</v>
       </c>
@@ -11166,7 +11178,7 @@
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
     </row>
-    <row r="164" spans="1:16" ht="29">
+    <row r="164" spans="1:16" ht="28.7">
       <c r="A164" s="22" t="s">
         <v>440</v>
       </c>
@@ -11210,7 +11222,7 @@
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
     </row>
-    <row r="165" spans="1:16" ht="49.5">
+    <row r="165" spans="1:16" ht="33.35">
       <c r="A165" s="22" t="s">
         <v>567</v>
       </c>
@@ -11252,7 +11264,7 @@
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
     </row>
-    <row r="166" spans="1:16" ht="43.5">
+    <row r="166" spans="1:16" ht="43">
       <c r="A166" s="22" t="s">
         <v>570</v>
       </c>
@@ -11296,7 +11308,7 @@
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
     </row>
-    <row r="167" spans="1:16" ht="29">
+    <row r="167" spans="1:16" ht="28.7">
       <c r="A167" s="22" t="s">
         <v>573</v>
       </c>
@@ -11338,7 +11350,7 @@
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
     </row>
-    <row r="168" spans="1:16" ht="29">
+    <row r="168" spans="1:16" ht="28.7">
       <c r="A168" s="22" t="s">
         <v>573</v>
       </c>
@@ -11380,7 +11392,7 @@
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
     </row>
-    <row r="169" spans="1:16" ht="16.5">
+    <row r="169" spans="1:16" ht="16.7">
       <c r="A169" s="22" t="s">
         <v>577</v>
       </c>
@@ -11422,7 +11434,7 @@
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
     </row>
-    <row r="170" spans="1:16" ht="16.5">
+    <row r="170" spans="1:16" ht="16.7">
       <c r="A170" s="22" t="s">
         <v>573</v>
       </c>
@@ -11464,7 +11476,7 @@
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
     </row>
-    <row r="171" spans="1:16" ht="16.5">
+    <row r="171" spans="1:16" ht="16.7">
       <c r="A171" s="22" t="s">
         <v>570</v>
       </c>
@@ -11506,7 +11518,7 @@
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
     </row>
-    <row r="172" spans="1:16" ht="16.5">
+    <row r="172" spans="1:16" ht="16.7">
       <c r="A172" s="22" t="s">
         <v>570</v>
       </c>
@@ -11548,7 +11560,7 @@
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
     </row>
-    <row r="173" spans="1:16" ht="33">
+    <row r="173" spans="1:16" ht="33.35">
       <c r="A173" s="22" t="s">
         <v>29</v>
       </c>
@@ -11590,7 +11602,7 @@
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
     </row>
-    <row r="174" spans="1:16" ht="16.5">
+    <row r="174" spans="1:16" ht="16.7">
       <c r="A174" s="22" t="s">
         <v>590</v>
       </c>
@@ -11632,7 +11644,7 @@
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
     </row>
-    <row r="175" spans="1:16" ht="33">
+    <row r="175" spans="1:16" ht="33.35">
       <c r="A175" s="22" t="s">
         <v>593</v>
       </c>
@@ -11676,7 +11688,7 @@
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
     </row>
-    <row r="176" spans="1:16" ht="16.5">
+    <row r="176" spans="1:16" ht="16.7">
       <c r="A176" s="22" t="s">
         <v>596</v>
       </c>
@@ -11720,7 +11732,7 @@
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
     </row>
-    <row r="177" spans="1:16" ht="16.5">
+    <row r="177" spans="1:16" ht="16.7">
       <c r="A177" s="22" t="s">
         <v>598</v>
       </c>
@@ -11762,7 +11774,7 @@
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
     </row>
-    <row r="178" spans="1:16" ht="49.5">
+    <row r="178" spans="1:16" ht="50">
       <c r="A178" s="22" t="s">
         <v>601</v>
       </c>
@@ -11804,7 +11816,7 @@
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
     </row>
-    <row r="179" spans="1:16" ht="49.5">
+    <row r="179" spans="1:16" ht="50">
       <c r="A179" s="22" t="s">
         <v>603</v>
       </c>
@@ -11846,7 +11858,7 @@
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
     </row>
-    <row r="180" spans="1:16" ht="33">
+    <row r="180" spans="1:16" ht="33.35">
       <c r="A180" s="22" t="s">
         <v>604</v>
       </c>
@@ -11888,7 +11900,7 @@
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
     </row>
-    <row r="181" spans="1:16" ht="16.5">
+    <row r="181" spans="1:16" ht="16.7">
       <c r="A181" s="22" t="s">
         <v>608</v>
       </c>
@@ -11932,7 +11944,7 @@
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
     </row>
-    <row r="182" spans="1:16" ht="16.5">
+    <row r="182" spans="1:16" ht="16.7">
       <c r="A182" s="22" t="s">
         <v>611</v>
       </c>
@@ -11974,7 +11986,7 @@
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
     </row>
-    <row r="183" spans="1:16" ht="49.5">
+    <row r="183" spans="1:16" ht="50">
       <c r="A183" s="22" t="s">
         <v>614</v>
       </c>
@@ -12016,7 +12028,7 @@
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
     </row>
-    <row r="184" spans="1:16" ht="49.5">
+    <row r="184" spans="1:16" ht="33.35">
       <c r="A184" s="22" t="s">
         <v>615</v>
       </c>
@@ -12058,7 +12070,7 @@
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
     </row>
-    <row r="185" spans="1:16" ht="49.5">
+    <row r="185" spans="1:16" ht="50">
       <c r="A185" s="22" t="s">
         <v>616</v>
       </c>
@@ -12100,7 +12112,7 @@
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
     </row>
-    <row r="186" spans="1:16" ht="49.5">
+    <row r="186" spans="1:16" ht="50">
       <c r="A186" s="22" t="s">
         <v>618</v>
       </c>
@@ -12142,7 +12154,7 @@
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
     </row>
-    <row r="187" spans="1:16" ht="16.5">
+    <row r="187" spans="1:16" ht="16.7">
       <c r="A187" s="22" t="s">
         <v>620</v>
       </c>
@@ -12184,7 +12196,7 @@
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
     </row>
-    <row r="188" spans="1:16" ht="16.5">
+    <row r="188" spans="1:16" ht="16.7">
       <c r="A188" s="22" t="s">
         <v>623</v>
       </c>
@@ -12226,7 +12238,7 @@
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
     </row>
-    <row r="189" spans="1:16" ht="16.5">
+    <row r="189" spans="1:16" ht="16.7">
       <c r="A189" s="22" t="s">
         <v>626</v>
       </c>
@@ -12268,7 +12280,7 @@
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
     </row>
-    <row r="190" spans="1:16" ht="16.5">
+    <row r="190" spans="1:16" ht="16.7">
       <c r="A190" s="22" t="s">
         <v>626</v>
       </c>
@@ -12310,7 +12322,7 @@
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
     </row>
-    <row r="191" spans="1:16" ht="16.5">
+    <row r="191" spans="1:16" ht="16.7">
       <c r="A191" s="22" t="s">
         <v>626</v>
       </c>
@@ -12352,7 +12364,7 @@
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
     </row>
-    <row r="192" spans="1:16" ht="16.5">
+    <row r="192" spans="1:16" ht="16.7">
       <c r="A192" s="22" t="s">
         <v>626</v>
       </c>
@@ -12394,7 +12406,7 @@
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
     </row>
-    <row r="193" spans="1:16" ht="16.5">
+    <row r="193" spans="1:16" ht="16.7">
       <c r="A193" s="22" t="s">
         <v>626</v>
       </c>
@@ -12436,7 +12448,7 @@
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
     </row>
-    <row r="194" spans="1:16" ht="29.5">
+    <row r="194" spans="1:16" ht="29.35">
       <c r="A194" s="22" t="s">
         <v>626</v>
       </c>
@@ -12478,7 +12490,7 @@
       <c r="O194" s="3"/>
       <c r="P194" s="3"/>
     </row>
-    <row r="195" spans="1:16" ht="16.5">
+    <row r="195" spans="1:16" ht="16.7">
       <c r="A195" s="22" t="s">
         <v>626</v>
       </c>
@@ -12522,7 +12534,7 @@
       <c r="O195" s="3"/>
       <c r="P195" s="3"/>
     </row>
-    <row r="196" spans="1:16" ht="16.5">
+    <row r="196" spans="1:16" ht="16.7">
       <c r="A196" s="22" t="s">
         <v>626</v>
       </c>
@@ -12564,7 +12576,7 @@
       <c r="O196" s="3"/>
       <c r="P196" s="3"/>
     </row>
-    <row r="197" spans="1:16" ht="16.5">
+    <row r="197" spans="1:16" ht="16.7">
       <c r="A197" s="22" t="s">
         <v>626</v>
       </c>
@@ -12606,7 +12618,7 @@
       <c r="O197" s="3"/>
       <c r="P197" s="3"/>
     </row>
-    <row r="198" spans="1:16" ht="16.5">
+    <row r="198" spans="1:16" ht="16.7">
       <c r="A198" s="22" t="s">
         <v>626</v>
       </c>
@@ -12650,7 +12662,7 @@
       <c r="O198" s="3"/>
       <c r="P198" s="3"/>
     </row>
-    <row r="199" spans="1:16" ht="16.5">
+    <row r="199" spans="1:16" ht="16.7">
       <c r="A199" s="22" t="s">
         <v>648</v>
       </c>
@@ -12692,7 +12704,7 @@
       <c r="O199" s="3"/>
       <c r="P199" s="3"/>
     </row>
-    <row r="200" spans="1:16" ht="16.5">
+    <row r="200" spans="1:16" ht="16.7">
       <c r="A200" s="22" t="s">
         <v>620</v>
       </c>
@@ -12736,7 +12748,7 @@
       <c r="O200" s="3"/>
       <c r="P200" s="3"/>
     </row>
-    <row r="201" spans="1:16" ht="33">
+    <row r="201" spans="1:16" ht="33.35">
       <c r="A201" s="22" t="s">
         <v>653</v>
       </c>
@@ -12778,7 +12790,7 @@
       <c r="O201" s="3"/>
       <c r="P201" s="3"/>
     </row>
-    <row r="202" spans="1:16" ht="16.5">
+    <row r="202" spans="1:16" ht="16.7">
       <c r="A202" s="22" t="s">
         <v>69</v>
       </c>
@@ -12822,7 +12834,7 @@
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
     </row>
-    <row r="203" spans="1:16" ht="33">
+    <row r="203" spans="1:16" ht="33.35">
       <c r="A203" s="22" t="s">
         <v>658</v>
       </c>
@@ -12866,7 +12878,7 @@
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
     </row>
-    <row r="204" spans="1:16" ht="16.5">
+    <row r="204" spans="1:16" ht="16.7">
       <c r="A204" s="22" t="s">
         <v>661</v>
       </c>
@@ -12908,7 +12920,7 @@
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
     </row>
-    <row r="205" spans="1:16" ht="16.5">
+    <row r="205" spans="1:16" ht="16.7">
       <c r="A205" s="22" t="s">
         <v>663</v>
       </c>
@@ -12950,7 +12962,7 @@
       <c r="O205" s="3"/>
       <c r="P205" s="3"/>
     </row>
-    <row r="206" spans="1:16" ht="33">
+    <row r="206" spans="1:16" ht="33.35">
       <c r="A206" s="22" t="s">
         <v>667</v>
       </c>
@@ -12992,7 +13004,7 @@
       <c r="O206" s="3"/>
       <c r="P206" s="3"/>
     </row>
-    <row r="207" spans="1:16" ht="33">
+    <row r="207" spans="1:16" ht="33.35">
       <c r="A207" s="22" t="s">
         <v>671</v>
       </c>
@@ -13036,7 +13048,7 @@
       <c r="O207" s="3"/>
       <c r="P207" s="3"/>
     </row>
-    <row r="208" spans="1:16" ht="16.5">
+    <row r="208" spans="1:16" ht="16.7">
       <c r="A208" s="22" t="s">
         <v>674</v>
       </c>
@@ -13080,7 +13092,7 @@
       <c r="O208" s="3"/>
       <c r="P208" s="3"/>
     </row>
-    <row r="209" spans="1:16" ht="33">
+    <row r="209" spans="1:16" ht="33.35">
       <c r="A209" s="22" t="s">
         <v>677</v>
       </c>
@@ -13124,7 +13136,7 @@
       <c r="O209" s="3"/>
       <c r="P209" s="3"/>
     </row>
-    <row r="210" spans="1:16" ht="16.5">
+    <row r="210" spans="1:16" ht="16.7">
       <c r="A210" s="22" t="s">
         <v>683</v>
       </c>
@@ -13168,7 +13180,7 @@
       <c r="O210" s="3"/>
       <c r="P210" s="3"/>
     </row>
-    <row r="211" spans="1:16" ht="16.5">
+    <row r="211" spans="1:16" ht="16.7">
       <c r="A211" s="22" t="s">
         <v>119</v>
       </c>
@@ -13210,7 +13222,7 @@
       <c r="O211" s="3"/>
       <c r="P211" s="3"/>
     </row>
-    <row r="212" spans="1:16" ht="49.5">
+    <row r="212" spans="1:16" ht="50">
       <c r="A212" s="22" t="s">
         <v>688</v>
       </c>
@@ -13252,7 +13264,7 @@
       <c r="O212" s="3"/>
       <c r="P212" s="3"/>
     </row>
-    <row r="213" spans="1:16" ht="33">
+    <row r="213" spans="1:16" ht="33.35">
       <c r="A213" s="22" t="s">
         <v>688</v>
       </c>
@@ -13294,7 +13306,7 @@
       <c r="O213" s="3"/>
       <c r="P213" s="3"/>
     </row>
-    <row r="214" spans="1:16" ht="49.5">
+    <row r="214" spans="1:16" ht="50">
       <c r="A214" s="22" t="s">
         <v>692</v>
       </c>
@@ -13338,7 +13350,7 @@
       <c r="O214" s="4"/>
       <c r="P214" s="4"/>
     </row>
-    <row r="215" spans="1:16" ht="49.5">
+    <row r="215" spans="1:16" ht="50">
       <c r="A215" s="22" t="s">
         <v>695</v>
       </c>
@@ -13380,7 +13392,7 @@
       <c r="O215" s="3"/>
       <c r="P215" s="3"/>
     </row>
-    <row r="216" spans="1:16" ht="33">
+    <row r="216" spans="1:16" ht="33.35">
       <c r="A216" s="22" t="s">
         <v>383</v>
       </c>
@@ -13424,7 +13436,7 @@
       <c r="O216" s="3"/>
       <c r="P216" s="3"/>
     </row>
-    <row r="217" spans="1:16" ht="49.5">
+    <row r="217" spans="1:16" ht="33.35">
       <c r="A217" s="22" t="s">
         <v>496</v>
       </c>
@@ -13468,7 +13480,7 @@
       <c r="O217" s="3"/>
       <c r="P217" s="3"/>
     </row>
-    <row r="218" spans="1:16" ht="49.5">
+    <row r="218" spans="1:16" ht="50">
       <c r="A218" s="22" t="s">
         <v>702</v>
       </c>
@@ -13510,7 +13522,7 @@
       <c r="O218" s="4"/>
       <c r="P218" s="4"/>
     </row>
-    <row r="219" spans="1:16" ht="49.5">
+    <row r="219" spans="1:16" ht="50">
       <c r="A219" s="22" t="s">
         <v>703</v>
       </c>
@@ -13554,7 +13566,7 @@
       <c r="O219" s="4"/>
       <c r="P219" s="4"/>
     </row>
-    <row r="220" spans="1:16" ht="33">
+    <row r="220" spans="1:16" ht="33.35">
       <c r="A220" s="22" t="s">
         <v>706</v>
       </c>
@@ -13596,7 +13608,7 @@
       <c r="O220" s="3"/>
       <c r="P220" s="3"/>
     </row>
-    <row r="221" spans="1:16" ht="49.5">
+    <row r="221" spans="1:16" ht="50">
       <c r="A221" s="22" t="s">
         <v>708</v>
       </c>
@@ -13640,7 +13652,7 @@
       <c r="O221" s="3"/>
       <c r="P221" s="3"/>
     </row>
-    <row r="222" spans="1:16" ht="33">
+    <row r="222" spans="1:16" ht="33.35">
       <c r="A222" s="22" t="s">
         <v>711</v>
       </c>
@@ -13684,7 +13696,7 @@
       <c r="O222" s="3"/>
       <c r="P222" s="3"/>
     </row>
-    <row r="223" spans="1:16" ht="16.5">
+    <row r="223" spans="1:16" ht="16.7">
       <c r="A223" s="22" t="s">
         <v>714</v>
       </c>
@@ -13726,7 +13738,7 @@
       <c r="O223" s="3"/>
       <c r="P223" s="3"/>
     </row>
-    <row r="224" spans="1:16" ht="33">
+    <row r="224" spans="1:16" ht="33.35">
       <c r="A224" s="22" t="s">
         <v>716</v>
       </c>
@@ -13768,7 +13780,7 @@
       <c r="O224" s="3"/>
       <c r="P224" s="3"/>
     </row>
-    <row r="225" spans="1:16" ht="49.5">
+    <row r="225" spans="1:16" ht="33.35">
       <c r="A225" s="22" t="s">
         <v>718</v>
       </c>
@@ -13810,7 +13822,7 @@
       <c r="O225" s="3"/>
       <c r="P225" s="3"/>
     </row>
-    <row r="226" spans="1:16" ht="16.5">
+    <row r="226" spans="1:16" ht="16.7">
       <c r="A226" s="22" t="s">
         <v>719</v>
       </c>
@@ -13852,7 +13864,7 @@
       <c r="O226" s="3"/>
       <c r="P226" s="3"/>
     </row>
-    <row r="227" spans="1:16" ht="16.5">
+    <row r="227" spans="1:16" ht="16.7">
       <c r="A227" s="22" t="s">
         <v>722</v>
       </c>
@@ -13894,7 +13906,7 @@
       <c r="O227" s="3"/>
       <c r="P227" s="3"/>
     </row>
-    <row r="228" spans="1:16" ht="49.5">
+    <row r="228" spans="1:16" ht="50">
       <c r="A228" s="22" t="s">
         <v>839</v>
       </c>
@@ -13936,7 +13948,7 @@
       <c r="O228" s="3"/>
       <c r="P228" s="3"/>
     </row>
-    <row r="229" spans="1:16" ht="49.5">
+    <row r="229" spans="1:16" ht="50">
       <c r="A229" s="22" t="s">
         <v>461</v>
       </c>
@@ -13980,7 +13992,7 @@
       <c r="O229" s="3"/>
       <c r="P229" s="3"/>
     </row>
-    <row r="230" spans="1:16" ht="33">
+    <row r="230" spans="1:16" ht="33.35">
       <c r="A230" s="22" t="s">
         <v>731</v>
       </c>
@@ -14022,7 +14034,7 @@
       <c r="O230" s="3"/>
       <c r="P230" s="3"/>
     </row>
-    <row r="231" spans="1:16" ht="49.5">
+    <row r="231" spans="1:16" ht="50">
       <c r="A231" s="22" t="s">
         <v>734</v>
       </c>
@@ -14066,7 +14078,7 @@
       <c r="O231" s="3"/>
       <c r="P231" s="3"/>
     </row>
-    <row r="232" spans="1:16" ht="49.5">
+    <row r="232" spans="1:16" ht="50">
       <c r="A232" s="22" t="s">
         <v>475</v>
       </c>
@@ -14110,7 +14122,7 @@
       <c r="O232" s="3"/>
       <c r="P232" s="3"/>
     </row>
-    <row r="233" spans="1:16" ht="49.5">
+    <row r="233" spans="1:16" ht="50">
       <c r="A233" s="22" t="s">
         <v>738</v>
       </c>
@@ -14152,7 +14164,7 @@
       <c r="O233" s="3"/>
       <c r="P233" s="3"/>
     </row>
-    <row r="234" spans="1:16" ht="16.5">
+    <row r="234" spans="1:16" ht="16.7">
       <c r="A234" s="22" t="s">
         <v>461</v>
       </c>
@@ -14196,7 +14208,7 @@
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
     </row>
-    <row r="235" spans="1:16" ht="16.5">
+    <row r="235" spans="1:16" ht="16.7">
       <c r="A235" s="22" t="s">
         <v>69</v>
       </c>
@@ -14240,7 +14252,7 @@
       <c r="O235" s="3"/>
       <c r="P235" s="3"/>
     </row>
-    <row r="236" spans="1:16" ht="33">
+    <row r="236" spans="1:16" ht="33.35">
       <c r="A236" s="22" t="s">
         <v>743</v>
       </c>
@@ -14284,7 +14296,7 @@
       <c r="O236" s="3"/>
       <c r="P236" s="3"/>
     </row>
-    <row r="237" spans="1:16" ht="16.5">
+    <row r="237" spans="1:16" ht="16.7">
       <c r="A237" s="22" t="s">
         <v>169</v>
       </c>
@@ -14326,7 +14338,7 @@
       <c r="O237" s="3"/>
       <c r="P237" s="3"/>
     </row>
-    <row r="238" spans="1:16" ht="33">
+    <row r="238" spans="1:16" ht="33.35">
       <c r="A238" s="22" t="s">
         <v>166</v>
       </c>
@@ -14368,7 +14380,7 @@
       <c r="O238" s="4"/>
       <c r="P238" s="4"/>
     </row>
-    <row r="239" spans="1:16" ht="49.5">
+    <row r="239" spans="1:16" ht="50">
       <c r="A239" s="22" t="s">
         <v>238</v>
       </c>
@@ -14410,7 +14422,7 @@
       <c r="O239" s="3"/>
       <c r="P239" s="3"/>
     </row>
-    <row r="240" spans="1:16" ht="33">
+    <row r="240" spans="1:16" ht="33.35">
       <c r="A240" s="22" t="s">
         <v>626</v>
       </c>
@@ -14454,7 +14466,7 @@
       <c r="O240" s="3"/>
       <c r="P240" s="3"/>
     </row>
-    <row r="241" spans="1:16" ht="49.5">
+    <row r="241" spans="1:16" ht="33.35">
       <c r="A241" s="22" t="s">
         <v>52</v>
       </c>
@@ -14498,7 +14510,7 @@
       <c r="O241" s="3"/>
       <c r="P241" s="3"/>
     </row>
-    <row r="242" spans="1:16" ht="49.5">
+    <row r="242" spans="1:16" ht="50">
       <c r="A242" s="22" t="s">
         <v>417</v>
       </c>
@@ -14540,7 +14552,7 @@
       <c r="O242" s="3"/>
       <c r="P242" s="3"/>
     </row>
-    <row r="243" spans="1:16" ht="33">
+    <row r="243" spans="1:16" ht="33.35">
       <c r="A243" s="22" t="s">
         <v>760</v>
       </c>
@@ -14582,7 +14594,7 @@
       <c r="O243" s="3"/>
       <c r="P243" s="3"/>
     </row>
-    <row r="244" spans="1:16" ht="31">
+    <row r="244" spans="1:16" ht="30">
       <c r="A244" s="22" t="s">
         <v>763</v>
       </c>
@@ -14624,7 +14636,7 @@
       <c r="O244" s="3"/>
       <c r="P244" s="3"/>
     </row>
-    <row r="245" spans="1:16" ht="49.5">
+    <row r="245" spans="1:16" ht="33.35">
       <c r="A245" s="22" t="s">
         <v>766</v>
       </c>
@@ -14666,7 +14678,7 @@
       <c r="O245" s="3"/>
       <c r="P245" s="3"/>
     </row>
-    <row r="246" spans="1:16" ht="49.5">
+    <row r="246" spans="1:16" ht="33.35">
       <c r="A246" s="22" t="s">
         <v>769</v>
       </c>
@@ -14708,7 +14720,7 @@
       <c r="O246" s="3"/>
       <c r="P246" s="3"/>
     </row>
-    <row r="247" spans="1:16" ht="49.5">
+    <row r="247" spans="1:16" ht="50">
       <c r="A247" s="22" t="s">
         <v>772</v>
       </c>
@@ -14752,7 +14764,7 @@
       <c r="O247" s="3"/>
       <c r="P247" s="3"/>
     </row>
-    <row r="248" spans="1:16" ht="31">
+    <row r="248" spans="1:16" ht="30">
       <c r="A248" s="22" t="s">
         <v>775</v>
       </c>
@@ -14794,7 +14806,7 @@
       <c r="O248" s="3"/>
       <c r="P248" s="3"/>
     </row>
-    <row r="249" spans="1:16" ht="49.5">
+    <row r="249" spans="1:16" ht="33.35">
       <c r="A249" s="22" t="s">
         <v>778</v>
       </c>
@@ -14836,7 +14848,7 @@
       <c r="O249" s="3"/>
       <c r="P249" s="3"/>
     </row>
-    <row r="250" spans="1:16" ht="33">
+    <row r="250" spans="1:16" ht="33.35">
       <c r="A250" s="22" t="s">
         <v>781</v>
       </c>
@@ -14880,7 +14892,7 @@
       <c r="O250" s="3"/>
       <c r="P250" s="3"/>
     </row>
-    <row r="251" spans="1:16" ht="33">
+    <row r="251" spans="1:16" ht="33.35">
       <c r="A251" s="22" t="s">
         <v>784</v>
       </c>
@@ -14922,7 +14934,7 @@
       <c r="O251" s="3"/>
       <c r="P251" s="3"/>
     </row>
-    <row r="252" spans="1:16" ht="33">
+    <row r="252" spans="1:16" ht="33.35">
       <c r="A252" s="22" t="s">
         <v>496</v>
       </c>
@@ -14964,7 +14976,7 @@
       <c r="O252" s="3"/>
       <c r="P252" s="3"/>
     </row>
-    <row r="253" spans="1:16" ht="49.5">
+    <row r="253" spans="1:16" ht="50">
       <c r="A253" s="22" t="s">
         <v>224</v>
       </c>
@@ -15008,7 +15020,7 @@
       <c r="O253" s="3"/>
       <c r="P253" s="3"/>
     </row>
-    <row r="254" spans="1:16" ht="49.5">
+    <row r="254" spans="1:16" ht="50">
       <c r="A254" s="22" t="s">
         <v>224</v>
       </c>
@@ -15050,7 +15062,7 @@
       <c r="O254" s="3"/>
       <c r="P254" s="3"/>
     </row>
-    <row r="255" spans="1:16" ht="33">
+    <row r="255" spans="1:16" ht="33.35">
       <c r="A255" s="22" t="s">
         <v>461</v>
       </c>
@@ -15092,7 +15104,7 @@
       <c r="O255" s="3"/>
       <c r="P255" s="3"/>
     </row>
-    <row r="256" spans="1:16" ht="49.5">
+    <row r="256" spans="1:16" ht="50">
       <c r="A256" s="22" t="s">
         <v>443</v>
       </c>
@@ -15136,7 +15148,7 @@
       <c r="O256" s="3"/>
       <c r="P256" s="3"/>
     </row>
-    <row r="257" spans="1:16" ht="49.5">
+    <row r="257" spans="1:16" ht="50">
       <c r="A257" s="22" t="s">
         <v>86</v>
       </c>
@@ -15178,7 +15190,7 @@
       <c r="O257" s="3"/>
       <c r="P257" s="3"/>
     </row>
-    <row r="258" spans="1:16" ht="46.5">
+    <row r="258" spans="1:16" ht="30">
       <c r="A258" s="22" t="s">
         <v>573</v>
       </c>
@@ -15222,7 +15234,7 @@
       <c r="O258" s="3"/>
       <c r="P258" s="3"/>
     </row>
-    <row r="259" spans="1:16" ht="31">
+    <row r="259" spans="1:16" ht="30">
       <c r="A259" s="22" t="s">
         <v>800</v>
       </c>
@@ -15266,7 +15278,7 @@
       <c r="O259" s="3"/>
       <c r="P259" s="3"/>
     </row>
-    <row r="260" spans="1:16" ht="49.5">
+    <row r="260" spans="1:16" ht="50">
       <c r="A260" s="22" t="s">
         <v>803</v>
       </c>
@@ -15310,7 +15322,7 @@
       <c r="O260" s="4"/>
       <c r="P260" s="4"/>
     </row>
-    <row r="261" spans="1:16" ht="31">
+    <row r="261" spans="1:16" ht="30">
       <c r="A261" s="22" t="s">
         <v>809</v>
       </c>
@@ -15354,7 +15366,7 @@
       <c r="O261" s="3"/>
       <c r="P261" s="3"/>
     </row>
-    <row r="262" spans="1:16" ht="33">
+    <row r="262" spans="1:16" ht="33.35">
       <c r="A262" s="22" t="s">
         <v>812</v>
       </c>
@@ -15398,7 +15410,7 @@
       <c r="O262" s="4"/>
       <c r="P262" s="4"/>
     </row>
-    <row r="263" spans="1:16" ht="31">
+    <row r="263" spans="1:16" ht="30">
       <c r="A263" s="22" t="s">
         <v>815</v>
       </c>
@@ -15442,7 +15454,7 @@
       <c r="O263" s="3"/>
       <c r="P263" s="3"/>
     </row>
-    <row r="264" spans="1:16" ht="49.5">
+    <row r="264" spans="1:16" ht="50">
       <c r="A264" s="22" t="s">
         <v>818</v>
       </c>
@@ -15484,7 +15496,7 @@
       <c r="O264" s="3"/>
       <c r="P264" s="3"/>
     </row>
-    <row r="265" spans="1:16" ht="31">
+    <row r="265" spans="1:16" ht="30">
       <c r="A265" s="22" t="s">
         <v>821</v>
       </c>
@@ -15526,7 +15538,7 @@
       <c r="O265" s="3"/>
       <c r="P265" s="3"/>
     </row>
-    <row r="266" spans="1:16" ht="31">
+    <row r="266" spans="1:16" ht="30">
       <c r="A266" s="22" t="s">
         <v>824</v>
       </c>
@@ -15570,7 +15582,7 @@
       <c r="O266" s="4"/>
       <c r="P266" s="4"/>
     </row>
-    <row r="267" spans="1:16" ht="33">
+    <row r="267" spans="1:16" ht="33.35">
       <c r="A267" s="22" t="s">
         <v>826</v>
       </c>
@@ -15614,7 +15626,7 @@
       <c r="O267" s="3"/>
       <c r="P267" s="3"/>
     </row>
-    <row r="268" spans="1:16" ht="31">
+    <row r="268" spans="1:16" ht="30">
       <c r="A268" s="22" t="s">
         <v>496</v>
       </c>
@@ -15658,7 +15670,7 @@
       <c r="O268" s="3"/>
       <c r="P268" s="3"/>
     </row>
-    <row r="269" spans="1:16" ht="49.5">
+    <row r="269" spans="1:16" ht="50">
       <c r="A269" s="22" t="s">
         <v>830</v>
       </c>
@@ -15700,7 +15712,7 @@
       <c r="O269" s="3"/>
       <c r="P269" s="3"/>
     </row>
-    <row r="270" spans="1:16" ht="31">
+    <row r="270" spans="1:16" ht="30">
       <c r="A270" s="22" t="s">
         <v>833</v>
       </c>
@@ -15744,7 +15756,7 @@
       <c r="O270" s="3"/>
       <c r="P270" s="3"/>
     </row>
-    <row r="271" spans="1:16" ht="16.5">
+    <row r="271" spans="1:16" ht="16.7">
       <c r="A271" s="22" t="s">
         <v>836</v>
       </c>
@@ -15786,7 +15798,7 @@
       <c r="O271" s="3"/>
       <c r="P271" s="3"/>
     </row>
-    <row r="272" spans="1:16" ht="29.5">
+    <row r="272" spans="1:16" ht="29.35">
       <c r="A272" s="22" t="s">
         <v>839</v>
       </c>
@@ -15828,7 +15840,7 @@
       <c r="O272" s="4"/>
       <c r="P272" s="4"/>
     </row>
-    <row r="273" spans="1:16" ht="16.5">
+    <row r="273" spans="1:16" ht="16.7">
       <c r="A273" s="22" t="s">
         <v>842</v>
       </c>
@@ -15870,7 +15882,7 @@
       <c r="O273" s="4"/>
       <c r="P273" s="4"/>
     </row>
-    <row r="274" spans="1:16" ht="16.5">
+    <row r="274" spans="1:16" ht="16.7">
       <c r="A274" s="22" t="s">
         <v>839</v>
       </c>
@@ -15914,7 +15926,7 @@
       <c r="O274" s="3"/>
       <c r="P274" s="3"/>
     </row>
-    <row r="275" spans="1:16" ht="29">
+    <row r="275" spans="1:16" ht="28.7">
       <c r="A275" s="22" t="s">
         <v>440</v>
       </c>
@@ -15956,7 +15968,7 @@
       <c r="O275" s="3"/>
       <c r="P275" s="3"/>
     </row>
-    <row r="276" spans="1:16" ht="31">
+    <row r="276" spans="1:16" ht="30">
       <c r="A276" s="22" t="s">
         <v>440</v>
       </c>
@@ -15998,7 +16010,7 @@
       <c r="O276" s="4"/>
       <c r="P276" s="4"/>
     </row>
-    <row r="277" spans="1:16" ht="16.5">
+    <row r="277" spans="1:16" ht="16.7">
       <c r="A277" s="22" t="s">
         <v>496</v>
       </c>
@@ -16042,7 +16054,7 @@
       <c r="O277" s="4"/>
       <c r="P277" s="4"/>
     </row>
-    <row r="278" spans="1:16" ht="33">
+    <row r="278" spans="1:16" ht="33.35">
       <c r="A278" s="22" t="s">
         <v>232</v>
       </c>
@@ -16084,7 +16096,7 @@
       <c r="O278" s="4"/>
       <c r="P278" s="4"/>
     </row>
-    <row r="279" spans="1:16" ht="33">
+    <row r="279" spans="1:16" ht="33.35">
       <c r="A279" s="22" t="s">
         <v>232</v>
       </c>
@@ -16126,7 +16138,7 @@
       <c r="O279" s="4"/>
       <c r="P279" s="4"/>
     </row>
-    <row r="280" spans="1:16" ht="29">
+    <row r="280" spans="1:16" ht="28.7">
       <c r="A280" s="22" t="s">
         <v>499</v>
       </c>
@@ -16170,7 +16182,7 @@
       <c r="O280" s="4"/>
       <c r="P280" s="4"/>
     </row>
-    <row r="281" spans="1:16" ht="16.5">
+    <row r="281" spans="1:16" ht="16.7">
       <c r="A281" s="22" t="s">
         <v>119</v>
       </c>
@@ -16212,7 +16224,7 @@
       <c r="O281" s="4"/>
       <c r="P281" s="4"/>
     </row>
-    <row r="282" spans="1:16" ht="29">
+    <row r="282" spans="1:16" ht="28.7">
       <c r="A282" s="22" t="s">
         <v>238</v>
       </c>
@@ -16254,7 +16266,7 @@
       <c r="O282" s="2"/>
       <c r="P282" s="2"/>
     </row>
-    <row r="283" spans="1:16" ht="29.5">
+    <row r="283" spans="1:16" ht="29.35">
       <c r="A283" s="22" t="s">
         <v>623</v>
       </c>
@@ -16296,7 +16308,7 @@
       <c r="O283" s="4"/>
       <c r="P283" s="4"/>
     </row>
-    <row r="284" spans="1:16" ht="16.5">
+    <row r="284" spans="1:16" ht="16.7">
       <c r="A284" s="22" t="s">
         <v>573</v>
       </c>
@@ -16340,7 +16352,7 @@
       <c r="O284" s="4"/>
       <c r="P284" s="4"/>
     </row>
-    <row r="285" spans="1:16" ht="16.5">
+    <row r="285" spans="1:16" ht="16.7">
       <c r="A285" s="22" t="s">
         <v>69</v>
       </c>
@@ -16384,7 +16396,7 @@
       <c r="O285" s="4"/>
       <c r="P285" s="4"/>
     </row>
-    <row r="286" spans="1:16" ht="16.5">
+    <row r="286" spans="1:16" ht="16.7">
       <c r="A286" s="22" t="s">
         <v>871</v>
       </c>
@@ -16428,7 +16440,7 @@
       <c r="O286" s="2"/>
       <c r="P286" s="2"/>
     </row>
-    <row r="287" spans="1:16" ht="33">
+    <row r="287" spans="1:16" ht="33.35">
       <c r="A287" s="22" t="s">
         <v>874</v>
       </c>
@@ -16470,7 +16482,7 @@
       <c r="O287" s="2"/>
       <c r="P287" s="2"/>
     </row>
-    <row r="288" spans="1:16" ht="16.5">
+    <row r="288" spans="1:16" ht="16.7">
       <c r="A288" s="22" t="s">
         <v>877</v>
       </c>
@@ -16512,7 +16524,7 @@
       <c r="O288" s="2"/>
       <c r="P288" s="2"/>
     </row>
-    <row r="289" spans="1:16" ht="16.5">
+    <row r="289" spans="1:16" ht="16.7">
       <c r="A289" s="22" t="s">
         <v>882</v>
       </c>
@@ -16556,7 +16568,7 @@
       <c r="O289" s="2"/>
       <c r="P289" s="2"/>
     </row>
-    <row r="290" spans="1:16" ht="49.5">
+    <row r="290" spans="1:16" ht="50">
       <c r="A290" s="22" t="s">
         <v>885</v>
       </c>
@@ -16600,7 +16612,7 @@
       <c r="O290" s="2"/>
       <c r="P290" s="2"/>
     </row>
-    <row r="291" spans="1:16" ht="49.5">
+    <row r="291" spans="1:16" ht="50">
       <c r="A291" s="22" t="s">
         <v>533</v>
       </c>
@@ -16644,7 +16656,7 @@
       <c r="O291" s="2"/>
       <c r="P291" s="2"/>
     </row>
-    <row r="292" spans="1:16" ht="29">
+    <row r="292" spans="1:16" ht="28.7">
       <c r="A292" s="22" t="s">
         <v>890</v>
       </c>
@@ -16686,7 +16698,7 @@
       <c r="O292" s="2"/>
       <c r="P292" s="2"/>
     </row>
-    <row r="293" spans="1:16" ht="29">
+    <row r="293" spans="1:16" ht="28.7">
       <c r="A293" s="22" t="s">
         <v>297</v>
       </c>
@@ -16730,7 +16742,7 @@
       <c r="O293" s="2"/>
       <c r="P293" s="2"/>
     </row>
-    <row r="294" spans="1:16" ht="29">
+    <row r="294" spans="1:16" ht="28.7">
       <c r="A294" s="22" t="s">
         <v>839</v>
       </c>
@@ -16774,7 +16786,7 @@
       <c r="O294" s="2"/>
       <c r="P294" s="2"/>
     </row>
-    <row r="295" spans="1:16" ht="33">
+    <row r="295" spans="1:16" ht="33.35">
       <c r="A295" s="22" t="s">
         <v>461</v>
       </c>
@@ -16816,7 +16828,7 @@
       <c r="O295" s="2"/>
       <c r="P295" s="2"/>
     </row>
-    <row r="296" spans="1:16" ht="29">
+    <row r="296" spans="1:16" ht="28.7">
       <c r="A296" s="22" t="s">
         <v>901</v>
       </c>
@@ -16858,7 +16870,7 @@
       <c r="O296" s="2"/>
       <c r="P296" s="2"/>
     </row>
-    <row r="297" spans="1:16" ht="29">
+    <row r="297" spans="1:16" ht="28.7">
       <c r="A297" s="22" t="s">
         <v>904</v>
       </c>
@@ -16900,7 +16912,7 @@
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
     </row>
-    <row r="298" spans="1:16" ht="43.5">
+    <row r="298" spans="1:16" ht="43">
       <c r="A298" s="22" t="s">
         <v>907</v>
       </c>
@@ -16942,7 +16954,7 @@
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
     </row>
-    <row r="299" spans="1:16" ht="29">
+    <row r="299" spans="1:16" ht="28.7">
       <c r="A299" s="22" t="s">
         <v>119</v>
       </c>
@@ -16984,7 +16996,7 @@
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
     </row>
-    <row r="300" spans="1:16" ht="29">
+    <row r="300" spans="1:16" ht="28.7">
       <c r="A300" s="22" t="s">
         <v>904</v>
       </c>
@@ -17026,7 +17038,7 @@
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
     </row>
-    <row r="301" spans="1:16" ht="29">
+    <row r="301" spans="1:16" ht="28.7">
       <c r="A301" s="22" t="s">
         <v>69</v>
       </c>
@@ -17070,7 +17082,7 @@
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
     </row>
-    <row r="302" spans="1:16" ht="29">
+    <row r="302" spans="1:16" ht="28.7">
       <c r="A302" s="22" t="s">
         <v>915</v>
       </c>
@@ -17114,7 +17126,7 @@
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
     </row>
-    <row r="303" spans="1:16" ht="29">
+    <row r="303" spans="1:16" ht="28.7">
       <c r="A303" s="22" t="s">
         <v>918</v>
       </c>
@@ -17158,7 +17170,7 @@
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
     </row>
-    <row r="304" spans="1:16" ht="33">
+    <row r="304" spans="1:16" ht="33.35">
       <c r="A304" s="22" t="s">
         <v>461</v>
       </c>
@@ -17200,7 +17212,7 @@
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
     </row>
-    <row r="305" spans="1:16" ht="33">
+    <row r="305" spans="1:16" ht="33.35">
       <c r="A305" s="22" t="s">
         <v>461</v>
       </c>
@@ -17242,7 +17254,7 @@
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
     </row>
-    <row r="306" spans="1:16" ht="33">
+    <row r="306" spans="1:16" ht="33.35">
       <c r="A306" s="22" t="s">
         <v>461</v>
       </c>
@@ -17284,7 +17296,7 @@
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
     </row>
-    <row r="307" spans="1:16" ht="29">
+    <row r="307" spans="1:16" ht="28.7">
       <c r="A307" s="22" t="s">
         <v>922</v>
       </c>
@@ -17326,7 +17338,7 @@
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
     </row>
-    <row r="308" spans="1:16" ht="29">
+    <row r="308" spans="1:16" ht="28.7">
       <c r="A308" s="22" t="s">
         <v>925</v>
       </c>
@@ -17368,7 +17380,7 @@
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
     </row>
-    <row r="309" spans="1:16" ht="29">
+    <row r="309" spans="1:16" ht="28.7">
       <c r="A309" s="22" t="s">
         <v>928</v>
       </c>
@@ -17412,7 +17424,7 @@
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
     </row>
-    <row r="310" spans="1:16" ht="43.5">
+    <row r="310" spans="1:16" ht="28.7">
       <c r="A310" s="22" t="s">
         <v>930</v>
       </c>
@@ -17456,7 +17468,7 @@
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
     </row>
-    <row r="311" spans="1:16" ht="29">
+    <row r="311" spans="1:16" ht="28.7">
       <c r="A311" s="22" t="s">
         <v>933</v>
       </c>
@@ -17498,7 +17510,7 @@
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
     </row>
-    <row r="312" spans="1:16" ht="29">
+    <row r="312" spans="1:16" ht="28.7">
       <c r="A312" s="22" t="s">
         <v>570</v>
       </c>
@@ -17540,7 +17552,7 @@
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
     </row>
-    <row r="313" spans="1:16" ht="29">
+    <row r="313" spans="1:16" ht="28.7">
       <c r="A313" s="22" t="s">
         <v>570</v>
       </c>
@@ -17582,7 +17594,7 @@
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
     </row>
-    <row r="314" spans="1:16" ht="29">
+    <row r="314" spans="1:16" ht="28.7">
       <c r="A314" s="22" t="s">
         <v>570</v>
       </c>
@@ -17624,7 +17636,7 @@
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
     </row>
-    <row r="315" spans="1:16" ht="29">
+    <row r="315" spans="1:16" ht="28.7">
       <c r="A315" s="22" t="s">
         <v>466</v>
       </c>
@@ -17666,7 +17678,7 @@
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
     </row>
-    <row r="316" spans="1:16" ht="29">
+    <row r="316" spans="1:16" ht="28.7">
       <c r="A316" s="22" t="s">
         <v>941</v>
       </c>
@@ -17708,7 +17720,7 @@
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
     </row>
-    <row r="317" spans="1:16" ht="29">
+    <row r="317" spans="1:16" ht="28.7">
       <c r="A317" s="22" t="s">
         <v>944</v>
       </c>
@@ -17750,7 +17762,7 @@
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
     </row>
-    <row r="318" spans="1:16" ht="33">
+    <row r="318" spans="1:16" ht="33.35">
       <c r="A318" s="22" t="s">
         <v>947</v>
       </c>
@@ -17792,7 +17804,7 @@
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
     </row>
-    <row r="319" spans="1:16" ht="29">
+    <row r="319" spans="1:16" ht="28.7">
       <c r="A319" s="22" t="s">
         <v>69</v>
       </c>
@@ -17836,7 +17848,7 @@
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
     </row>
-    <row r="320" spans="1:16" ht="29">
+    <row r="320" spans="1:16" ht="28.7">
       <c r="A320" s="22" t="s">
         <v>952</v>
       </c>
@@ -17878,7 +17890,7 @@
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
     </row>
-    <row r="321" spans="1:16" ht="43.5">
+    <row r="321" spans="1:16" ht="28.7">
       <c r="A321" s="22" t="s">
         <v>461</v>
       </c>
@@ -17920,7 +17932,7 @@
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
     </row>
-    <row r="322" spans="1:16" ht="49.5">
+    <row r="322" spans="1:16" ht="50">
       <c r="A322" s="22" t="s">
         <v>960</v>
       </c>
@@ -17962,7 +17974,7 @@
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
     </row>
-    <row r="323" spans="1:16" ht="33">
+    <row r="323" spans="1:16" ht="33.35">
       <c r="A323" s="22" t="s">
         <v>963</v>
       </c>
@@ -18004,7 +18016,7 @@
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
     </row>
-    <row r="324" spans="1:16" ht="33">
+    <row r="324" spans="1:16" ht="33.35">
       <c r="A324" s="22" t="s">
         <v>966</v>
       </c>
@@ -18046,7 +18058,7 @@
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
     </row>
-    <row r="325" spans="1:16" ht="33">
+    <row r="325" spans="1:16" ht="33.35">
       <c r="A325" s="22" t="s">
         <v>969</v>
       </c>
@@ -18088,7 +18100,7 @@
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
     </row>
-    <row r="326" spans="1:16" ht="33">
+    <row r="326" spans="1:16" ht="33.35">
       <c r="A326" s="36" t="s">
         <v>972</v>
       </c>
@@ -18130,7 +18142,7 @@
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
     </row>
-    <row r="327" spans="1:16" ht="33">
+    <row r="327" spans="1:16" ht="33.35">
       <c r="A327" s="36" t="s">
         <v>974</v>
       </c>
@@ -18172,7 +18184,7 @@
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
     </row>
-    <row r="328" spans="1:16" ht="49.5">
+    <row r="328" spans="1:16" ht="50">
       <c r="A328" s="22" t="s">
         <v>29</v>
       </c>
@@ -18214,7 +18226,7 @@
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
     </row>
-    <row r="329" spans="1:16" ht="33">
+    <row r="329" spans="1:16" ht="33.35">
       <c r="A329" s="22" t="s">
         <v>979</v>
       </c>
@@ -18256,7 +18268,7 @@
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
     </row>
-    <row r="330" spans="1:16" ht="33">
+    <row r="330" spans="1:16" ht="33.35">
       <c r="A330" s="22" t="s">
         <v>982</v>
       </c>
@@ -18298,14 +18310,14 @@
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
     </row>
-    <row r="331" spans="1:16" ht="49.5">
+    <row r="331" spans="1:16" ht="50">
       <c r="A331" s="22" t="s">
         <v>986</v>
       </c>
-      <c r="B331" s="59">
+      <c r="B331" s="55">
         <v>46023</v>
       </c>
-      <c r="C331" s="59" t="s">
+      <c r="C331" s="55" t="s">
         <v>989</v>
       </c>
       <c r="D331" s="22" t="s">
@@ -18317,30 +18329,30 @@
       <c r="F331" s="34">
         <v>800</v>
       </c>
-      <c r="G331" s="60"/>
+      <c r="G331" s="56"/>
       <c r="H331" s="22" t="s">
         <v>987</v>
       </c>
-      <c r="I331" s="61" t="s">
+      <c r="I331" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="J331" s="61" t="s">
+      <c r="J331" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="K331" s="61" t="s">
+      <c r="K331" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="L331" s="62" t="s">
+      <c r="L331" s="58" t="s">
         <v>988</v>
       </c>
-      <c r="M331" s="61" t="s">
+      <c r="M331" s="57" t="s">
         <v>957</v>
       </c>
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
     </row>
-    <row r="332" spans="1:16" ht="16.5">
+    <row r="332" spans="1:16" ht="16.7">
       <c r="A332" s="22" t="s">
         <v>991</v>
       </c>
@@ -18382,7 +18394,7 @@
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
     </row>
-    <row r="333" spans="1:16" ht="33">
+    <row r="333" spans="1:16" ht="33.35">
       <c r="A333" s="22" t="s">
         <v>994</v>
       </c>
@@ -18424,7 +18436,43 @@
       <c r="P333" s="1"/>
     </row>
     <row r="334" spans="1:16" ht="18" customHeight="1">
-      <c r="M334" s="1"/>
+      <c r="A334" s="22" t="s">
+        <v>986</v>
+      </c>
+      <c r="B334" s="31">
+        <v>45689</v>
+      </c>
+      <c r="C334" s="31" t="s">
+        <v>989</v>
+      </c>
+      <c r="D334" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E334" s="32" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F334" s="34">
+        <v>386</v>
+      </c>
+      <c r="G334" s="59"/>
+      <c r="H334" s="59" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I334" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J334" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K334" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L334" s="60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M334" s="4">
+        <v>1404</v>
+      </c>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
@@ -23007,1189 +23055,1189 @@
       <c r="O1097" s="1"/>
       <c r="P1097" s="1"/>
     </row>
-    <row r="1098" spans="13:16" ht="14.5">
+    <row r="1098" spans="13:16" ht="14.35">
       <c r="M1098" s="1"/>
       <c r="N1098" s="1"/>
       <c r="O1098" s="1"/>
       <c r="P1098" s="1"/>
     </row>
-    <row r="1099" spans="13:16" ht="14.5">
+    <row r="1099" spans="13:16" ht="14.35">
       <c r="M1099" s="1"/>
       <c r="N1099" s="1"/>
       <c r="O1099" s="1"/>
       <c r="P1099" s="1"/>
     </row>
-    <row r="1100" spans="13:16" ht="14.5">
+    <row r="1100" spans="13:16" ht="14.35">
       <c r="M1100" s="1"/>
       <c r="N1100" s="1"/>
       <c r="O1100" s="1"/>
       <c r="P1100" s="1"/>
     </row>
-    <row r="1101" spans="13:16" ht="14.5">
+    <row r="1101" spans="13:16" ht="14.35">
       <c r="M1101" s="1"/>
       <c r="N1101" s="1"/>
       <c r="O1101" s="1"/>
       <c r="P1101" s="1"/>
     </row>
-    <row r="1102" spans="13:16" ht="14.5">
+    <row r="1102" spans="13:16" ht="14.35">
       <c r="M1102" s="1"/>
       <c r="N1102" s="1"/>
       <c r="O1102" s="1"/>
       <c r="P1102" s="1"/>
     </row>
-    <row r="1103" spans="13:16" ht="14.5">
+    <row r="1103" spans="13:16" ht="14.35">
       <c r="M1103" s="1"/>
       <c r="N1103" s="1"/>
       <c r="O1103" s="1"/>
       <c r="P1103" s="1"/>
     </row>
-    <row r="1104" spans="13:16" ht="14.5">
+    <row r="1104" spans="13:16" ht="14.35">
       <c r="M1104" s="1"/>
       <c r="N1104" s="1"/>
       <c r="O1104" s="1"/>
       <c r="P1104" s="1"/>
     </row>
-    <row r="1105" spans="13:16" ht="14.5">
+    <row r="1105" spans="13:16" ht="14.35">
       <c r="M1105" s="1"/>
       <c r="N1105" s="1"/>
       <c r="O1105" s="1"/>
       <c r="P1105" s="1"/>
     </row>
-    <row r="1106" spans="13:16" ht="14.5">
+    <row r="1106" spans="13:16" ht="14.35">
       <c r="M1106" s="1"/>
       <c r="N1106" s="1"/>
       <c r="O1106" s="1"/>
       <c r="P1106" s="1"/>
     </row>
-    <row r="1107" spans="13:16" ht="14.5">
+    <row r="1107" spans="13:16" ht="14.35">
       <c r="M1107" s="1"/>
       <c r="N1107" s="1"/>
       <c r="O1107" s="1"/>
       <c r="P1107" s="1"/>
     </row>
-    <row r="1108" spans="13:16" ht="14.5">
+    <row r="1108" spans="13:16" ht="14.35">
       <c r="M1108" s="1"/>
       <c r="N1108" s="1"/>
       <c r="O1108" s="1"/>
       <c r="P1108" s="1"/>
     </row>
-    <row r="1109" spans="13:16" ht="14.5">
+    <row r="1109" spans="13:16" ht="14.35">
       <c r="M1109" s="1"/>
       <c r="N1109" s="1"/>
       <c r="O1109" s="1"/>
       <c r="P1109" s="1"/>
     </row>
-    <row r="1110" spans="13:16" ht="14.5">
+    <row r="1110" spans="13:16" ht="14.35">
       <c r="M1110" s="1"/>
       <c r="N1110" s="1"/>
       <c r="O1110" s="1"/>
       <c r="P1110" s="1"/>
     </row>
-    <row r="1111" spans="13:16" ht="14.5">
+    <row r="1111" spans="13:16" ht="14.35">
       <c r="M1111" s="1"/>
       <c r="N1111" s="1"/>
       <c r="O1111" s="1"/>
       <c r="P1111" s="1"/>
     </row>
-    <row r="1112" spans="13:16" ht="14.5">
+    <row r="1112" spans="13:16" ht="14.35">
       <c r="M1112" s="1"/>
       <c r="N1112" s="1"/>
       <c r="O1112" s="1"/>
       <c r="P1112" s="1"/>
     </row>
-    <row r="1113" spans="13:16" ht="14.5">
+    <row r="1113" spans="13:16" ht="14.35">
       <c r="M1113" s="1"/>
       <c r="N1113" s="1"/>
       <c r="O1113" s="1"/>
       <c r="P1113" s="1"/>
     </row>
-    <row r="1114" spans="13:16" ht="14.5">
+    <row r="1114" spans="13:16" ht="14.35">
       <c r="M1114" s="1"/>
       <c r="N1114" s="1"/>
       <c r="O1114" s="1"/>
       <c r="P1114" s="1"/>
     </row>
-    <row r="1115" spans="13:16" ht="14.5">
+    <row r="1115" spans="13:16" ht="14.35">
       <c r="M1115" s="1"/>
       <c r="N1115" s="1"/>
       <c r="O1115" s="1"/>
       <c r="P1115" s="1"/>
     </row>
-    <row r="1116" spans="13:16" ht="14.5">
+    <row r="1116" spans="13:16" ht="14.35">
       <c r="M1116" s="1"/>
       <c r="N1116" s="1"/>
       <c r="O1116" s="1"/>
       <c r="P1116" s="1"/>
     </row>
-    <row r="1117" spans="13:16" ht="14.5">
+    <row r="1117" spans="13:16" ht="14.35">
       <c r="M1117" s="1"/>
       <c r="N1117" s="1"/>
       <c r="O1117" s="1"/>
       <c r="P1117" s="1"/>
     </row>
-    <row r="1118" spans="13:16" ht="14.5">
+    <row r="1118" spans="13:16" ht="14.35">
       <c r="M1118" s="1"/>
       <c r="N1118" s="1"/>
       <c r="O1118" s="1"/>
       <c r="P1118" s="1"/>
     </row>
-    <row r="1119" spans="13:16" ht="14.5">
+    <row r="1119" spans="13:16" ht="14.35">
       <c r="M1119" s="1"/>
       <c r="N1119" s="1"/>
       <c r="O1119" s="1"/>
       <c r="P1119" s="1"/>
     </row>
-    <row r="1120" spans="13:16" ht="14.5">
+    <row r="1120" spans="13:16" ht="14.35">
       <c r="M1120" s="1"/>
       <c r="N1120" s="1"/>
       <c r="O1120" s="1"/>
       <c r="P1120" s="1"/>
     </row>
-    <row r="1121" spans="13:16" ht="14.5">
+    <row r="1121" spans="13:16" ht="14.35">
       <c r="M1121" s="1"/>
       <c r="N1121" s="1"/>
       <c r="O1121" s="1"/>
       <c r="P1121" s="1"/>
     </row>
-    <row r="1122" spans="13:16" ht="14.5">
+    <row r="1122" spans="13:16" ht="14.35">
       <c r="M1122" s="1"/>
       <c r="N1122" s="1"/>
       <c r="O1122" s="1"/>
       <c r="P1122" s="1"/>
     </row>
-    <row r="1123" spans="13:16" ht="14.5">
+    <row r="1123" spans="13:16" ht="14.35">
       <c r="M1123" s="1"/>
       <c r="N1123" s="1"/>
       <c r="O1123" s="1"/>
       <c r="P1123" s="1"/>
     </row>
-    <row r="1124" spans="13:16" ht="14.5">
+    <row r="1124" spans="13:16" ht="14.35">
       <c r="M1124" s="1"/>
       <c r="N1124" s="1"/>
       <c r="O1124" s="1"/>
       <c r="P1124" s="1"/>
     </row>
-    <row r="1125" spans="13:16" ht="14.5">
+    <row r="1125" spans="13:16" ht="14.35">
       <c r="M1125" s="1"/>
       <c r="N1125" s="1"/>
       <c r="O1125" s="1"/>
       <c r="P1125" s="1"/>
     </row>
-    <row r="1126" spans="13:16" ht="14.5">
+    <row r="1126" spans="13:16" ht="14.35">
       <c r="M1126" s="1"/>
       <c r="N1126" s="1"/>
       <c r="O1126" s="1"/>
       <c r="P1126" s="1"/>
     </row>
-    <row r="1127" spans="13:16" ht="14.5">
+    <row r="1127" spans="13:16" ht="14.35">
       <c r="M1127" s="1"/>
       <c r="N1127" s="1"/>
       <c r="O1127" s="1"/>
       <c r="P1127" s="1"/>
     </row>
-    <row r="1128" spans="13:16" ht="14.5">
+    <row r="1128" spans="13:16" ht="14.35">
       <c r="M1128" s="1"/>
       <c r="N1128" s="1"/>
       <c r="O1128" s="1"/>
       <c r="P1128" s="1"/>
     </row>
-    <row r="1129" spans="13:16" ht="14.5">
+    <row r="1129" spans="13:16" ht="14.35">
       <c r="M1129" s="1"/>
       <c r="N1129" s="1"/>
       <c r="O1129" s="1"/>
       <c r="P1129" s="1"/>
     </row>
-    <row r="1130" spans="13:16" ht="14.5">
+    <row r="1130" spans="13:16" ht="14.35">
       <c r="M1130" s="1"/>
       <c r="N1130" s="1"/>
       <c r="O1130" s="1"/>
       <c r="P1130" s="1"/>
     </row>
-    <row r="1131" spans="13:16" ht="14.5">
+    <row r="1131" spans="13:16" ht="14.35">
       <c r="M1131" s="1"/>
       <c r="N1131" s="1"/>
       <c r="O1131" s="1"/>
       <c r="P1131" s="1"/>
     </row>
-    <row r="1132" spans="13:16" ht="14.5">
+    <row r="1132" spans="13:16" ht="14.35">
       <c r="M1132" s="1"/>
       <c r="N1132" s="1"/>
       <c r="O1132" s="1"/>
       <c r="P1132" s="1"/>
     </row>
-    <row r="1133" spans="13:16" ht="14.5">
+    <row r="1133" spans="13:16" ht="14.35">
       <c r="M1133" s="1"/>
       <c r="N1133" s="1"/>
       <c r="O1133" s="1"/>
       <c r="P1133" s="1"/>
     </row>
-    <row r="1134" spans="13:16" ht="14.5">
+    <row r="1134" spans="13:16" ht="14.35">
       <c r="M1134" s="1"/>
       <c r="N1134" s="1"/>
       <c r="O1134" s="1"/>
       <c r="P1134" s="1"/>
     </row>
-    <row r="1135" spans="13:16" ht="14.5">
+    <row r="1135" spans="13:16" ht="14.35">
       <c r="M1135" s="1"/>
       <c r="N1135" s="1"/>
       <c r="O1135" s="1"/>
       <c r="P1135" s="1"/>
     </row>
-    <row r="1136" spans="13:16" ht="14.5">
+    <row r="1136" spans="13:16" ht="14.35">
       <c r="M1136" s="1"/>
       <c r="N1136" s="1"/>
       <c r="O1136" s="1"/>
       <c r="P1136" s="1"/>
     </row>
-    <row r="1137" spans="13:16" ht="14.5">
+    <row r="1137" spans="13:16" ht="14.35">
       <c r="M1137" s="1"/>
       <c r="N1137" s="1"/>
       <c r="O1137" s="1"/>
       <c r="P1137" s="1"/>
     </row>
-    <row r="1138" spans="13:16" ht="14.5">
+    <row r="1138" spans="13:16" ht="14.35">
       <c r="M1138" s="1"/>
       <c r="N1138" s="1"/>
       <c r="O1138" s="1"/>
       <c r="P1138" s="1"/>
     </row>
-    <row r="1139" spans="13:16" ht="14.5">
+    <row r="1139" spans="13:16" ht="14.35">
       <c r="M1139" s="1"/>
       <c r="N1139" s="1"/>
       <c r="O1139" s="1"/>
       <c r="P1139" s="1"/>
     </row>
-    <row r="1140" spans="13:16" ht="14.5">
+    <row r="1140" spans="13:16" ht="14.35">
       <c r="M1140" s="1"/>
       <c r="N1140" s="1"/>
       <c r="O1140" s="1"/>
       <c r="P1140" s="1"/>
     </row>
-    <row r="1141" spans="13:16" ht="14.5">
+    <row r="1141" spans="13:16" ht="14.35">
       <c r="M1141" s="1"/>
       <c r="N1141" s="1"/>
       <c r="O1141" s="1"/>
       <c r="P1141" s="1"/>
     </row>
-    <row r="1142" spans="13:16" ht="14.5">
+    <row r="1142" spans="13:16" ht="14.35">
       <c r="M1142" s="1"/>
       <c r="N1142" s="1"/>
       <c r="O1142" s="1"/>
       <c r="P1142" s="1"/>
     </row>
-    <row r="1143" spans="13:16" ht="14.5">
+    <row r="1143" spans="13:16" ht="14.35">
       <c r="M1143" s="1"/>
       <c r="N1143" s="1"/>
       <c r="O1143" s="1"/>
       <c r="P1143" s="1"/>
     </row>
-    <row r="1144" spans="13:16" ht="14.5">
+    <row r="1144" spans="13:16" ht="14.35">
       <c r="M1144" s="1"/>
       <c r="N1144" s="1"/>
       <c r="O1144" s="1"/>
       <c r="P1144" s="1"/>
     </row>
-    <row r="1145" spans="13:16" ht="14.5">
+    <row r="1145" spans="13:16" ht="14.35">
       <c r="M1145" s="1"/>
       <c r="N1145" s="1"/>
       <c r="O1145" s="1"/>
       <c r="P1145" s="1"/>
     </row>
-    <row r="1146" spans="13:16" ht="14.5">
+    <row r="1146" spans="13:16" ht="14.35">
       <c r="M1146" s="1"/>
       <c r="N1146" s="1"/>
       <c r="O1146" s="1"/>
       <c r="P1146" s="1"/>
     </row>
-    <row r="1147" spans="13:16" ht="14.5">
+    <row r="1147" spans="13:16" ht="14.35">
       <c r="M1147" s="1"/>
       <c r="N1147" s="1"/>
       <c r="O1147" s="1"/>
       <c r="P1147" s="1"/>
     </row>
-    <row r="1148" spans="13:16" ht="14.5">
+    <row r="1148" spans="13:16" ht="14.35">
       <c r="M1148" s="1"/>
       <c r="N1148" s="1"/>
       <c r="O1148" s="1"/>
       <c r="P1148" s="1"/>
     </row>
-    <row r="1149" spans="13:16" ht="14.5">
+    <row r="1149" spans="13:16" ht="14.35">
       <c r="M1149" s="1"/>
       <c r="N1149" s="1"/>
       <c r="O1149" s="1"/>
       <c r="P1149" s="1"/>
     </row>
-    <row r="1150" spans="13:16" ht="14.5">
+    <row r="1150" spans="13:16" ht="14.35">
       <c r="M1150" s="1"/>
       <c r="N1150" s="1"/>
       <c r="O1150" s="1"/>
       <c r="P1150" s="1"/>
     </row>
-    <row r="1151" spans="13:16" ht="14.5">
+    <row r="1151" spans="13:16" ht="14.35">
       <c r="M1151" s="1"/>
       <c r="N1151" s="1"/>
       <c r="O1151" s="1"/>
       <c r="P1151" s="1"/>
     </row>
-    <row r="1152" spans="13:16" ht="14.5">
+    <row r="1152" spans="13:16" ht="14.35">
       <c r="M1152" s="1"/>
       <c r="N1152" s="1"/>
       <c r="O1152" s="1"/>
       <c r="P1152" s="1"/>
     </row>
-    <row r="1153" spans="13:16" ht="14.5">
+    <row r="1153" spans="13:16" ht="14.35">
       <c r="M1153" s="1"/>
       <c r="N1153" s="1"/>
       <c r="O1153" s="1"/>
       <c r="P1153" s="1"/>
     </row>
-    <row r="1154" spans="13:16" ht="14.5">
+    <row r="1154" spans="13:16" ht="14.35">
       <c r="M1154" s="1"/>
       <c r="N1154" s="1"/>
       <c r="O1154" s="1"/>
       <c r="P1154" s="1"/>
     </row>
-    <row r="1155" spans="13:16" ht="14.5">
+    <row r="1155" spans="13:16" ht="14.35">
       <c r="M1155" s="1"/>
       <c r="N1155" s="1"/>
       <c r="O1155" s="1"/>
       <c r="P1155" s="1"/>
     </row>
-    <row r="1156" spans="13:16" ht="14.5">
+    <row r="1156" spans="13:16" ht="14.35">
       <c r="M1156" s="1"/>
       <c r="N1156" s="1"/>
       <c r="O1156" s="1"/>
       <c r="P1156" s="1"/>
     </row>
-    <row r="1157" spans="13:16" ht="14.5">
+    <row r="1157" spans="13:16" ht="14.35">
       <c r="M1157" s="1"/>
       <c r="N1157" s="1"/>
       <c r="O1157" s="1"/>
       <c r="P1157" s="1"/>
     </row>
-    <row r="1158" spans="13:16" ht="14.5">
+    <row r="1158" spans="13:16" ht="14.35">
       <c r="M1158" s="1"/>
       <c r="N1158" s="1"/>
       <c r="O1158" s="1"/>
       <c r="P1158" s="1"/>
     </row>
-    <row r="1159" spans="13:16" ht="14.5">
+    <row r="1159" spans="13:16" ht="14.35">
       <c r="M1159" s="1"/>
       <c r="N1159" s="1"/>
       <c r="O1159" s="1"/>
       <c r="P1159" s="1"/>
     </row>
-    <row r="1160" spans="13:16" ht="14.5">
+    <row r="1160" spans="13:16" ht="14.35">
       <c r="M1160" s="1"/>
       <c r="N1160" s="1"/>
       <c r="O1160" s="1"/>
       <c r="P1160" s="1"/>
     </row>
-    <row r="1161" spans="13:16" ht="14.5">
+    <row r="1161" spans="13:16" ht="14.35">
       <c r="M1161" s="1"/>
       <c r="N1161" s="1"/>
       <c r="O1161" s="1"/>
       <c r="P1161" s="1"/>
     </row>
-    <row r="1162" spans="13:16" ht="14.5">
+    <row r="1162" spans="13:16" ht="14.35">
       <c r="M1162" s="1"/>
       <c r="N1162" s="1"/>
       <c r="O1162" s="1"/>
       <c r="P1162" s="1"/>
     </row>
-    <row r="1163" spans="13:16" ht="14.5">
+    <row r="1163" spans="13:16" ht="14.35">
       <c r="M1163" s="1"/>
       <c r="N1163" s="1"/>
       <c r="O1163" s="1"/>
       <c r="P1163" s="1"/>
     </row>
-    <row r="1164" spans="13:16" ht="14.5">
+    <row r="1164" spans="13:16" ht="14.35">
       <c r="M1164" s="1"/>
       <c r="N1164" s="1"/>
       <c r="O1164" s="1"/>
       <c r="P1164" s="1"/>
     </row>
-    <row r="1165" spans="13:16" ht="14.5">
+    <row r="1165" spans="13:16" ht="14.35">
       <c r="M1165" s="1"/>
       <c r="N1165" s="1"/>
       <c r="O1165" s="1"/>
       <c r="P1165" s="1"/>
     </row>
-    <row r="1166" spans="13:16" ht="14.5">
+    <row r="1166" spans="13:16" ht="14.35">
       <c r="M1166" s="1"/>
       <c r="N1166" s="1"/>
       <c r="O1166" s="1"/>
       <c r="P1166" s="1"/>
     </row>
-    <row r="1167" spans="13:16" ht="14.5">
+    <row r="1167" spans="13:16" ht="14.35">
       <c r="M1167" s="1"/>
       <c r="N1167" s="1"/>
       <c r="O1167" s="1"/>
       <c r="P1167" s="1"/>
     </row>
-    <row r="1168" spans="13:16" ht="14.5">
+    <row r="1168" spans="13:16" ht="14.35">
       <c r="M1168" s="1"/>
       <c r="N1168" s="1"/>
       <c r="O1168" s="1"/>
       <c r="P1168" s="1"/>
     </row>
-    <row r="1169" spans="13:16" ht="14.5">
+    <row r="1169" spans="13:16" ht="14.35">
       <c r="M1169" s="1"/>
       <c r="N1169" s="1"/>
       <c r="O1169" s="1"/>
       <c r="P1169" s="1"/>
     </row>
-    <row r="1170" spans="13:16" ht="14.5">
+    <row r="1170" spans="13:16" ht="14.35">
       <c r="M1170" s="1"/>
       <c r="N1170" s="1"/>
       <c r="O1170" s="1"/>
       <c r="P1170" s="1"/>
     </row>
-    <row r="1171" spans="13:16" ht="14.5">
+    <row r="1171" spans="13:16" ht="14.35">
       <c r="M1171" s="1"/>
       <c r="N1171" s="1"/>
       <c r="O1171" s="1"/>
       <c r="P1171" s="1"/>
     </row>
-    <row r="1172" spans="13:16" ht="14.5">
+    <row r="1172" spans="13:16" ht="14.35">
       <c r="M1172" s="1"/>
       <c r="N1172" s="1"/>
       <c r="O1172" s="1"/>
       <c r="P1172" s="1"/>
     </row>
-    <row r="1173" spans="13:16" ht="14.5">
+    <row r="1173" spans="13:16" ht="14.35">
       <c r="M1173" s="1"/>
       <c r="N1173" s="1"/>
       <c r="O1173" s="1"/>
       <c r="P1173" s="1"/>
     </row>
-    <row r="1174" spans="13:16" ht="14.5">
+    <row r="1174" spans="13:16" ht="14.35">
       <c r="M1174" s="1"/>
       <c r="N1174" s="1"/>
       <c r="O1174" s="1"/>
       <c r="P1174" s="1"/>
     </row>
-    <row r="1175" spans="13:16" ht="14.5">
+    <row r="1175" spans="13:16" ht="14.35">
       <c r="M1175" s="1"/>
       <c r="N1175" s="1"/>
       <c r="O1175" s="1"/>
       <c r="P1175" s="1"/>
     </row>
-    <row r="1176" spans="13:16" ht="14.5">
+    <row r="1176" spans="13:16" ht="14.35">
       <c r="M1176" s="1"/>
       <c r="N1176" s="1"/>
       <c r="O1176" s="1"/>
       <c r="P1176" s="1"/>
     </row>
-    <row r="1177" spans="13:16" ht="14.5">
+    <row r="1177" spans="13:16" ht="14.35">
       <c r="M1177" s="1"/>
       <c r="N1177" s="1"/>
       <c r="O1177" s="1"/>
       <c r="P1177" s="1"/>
     </row>
-    <row r="1178" spans="13:16" ht="14.5">
+    <row r="1178" spans="13:16" ht="14.35">
       <c r="M1178" s="1"/>
       <c r="N1178" s="1"/>
       <c r="O1178" s="1"/>
       <c r="P1178" s="1"/>
     </row>
-    <row r="1179" spans="13:16" ht="14.5">
+    <row r="1179" spans="13:16" ht="14.35">
       <c r="M1179" s="1"/>
       <c r="N1179" s="1"/>
       <c r="O1179" s="1"/>
       <c r="P1179" s="1"/>
     </row>
-    <row r="1180" spans="13:16" ht="14.5">
+    <row r="1180" spans="13:16" ht="14.35">
       <c r="M1180" s="1"/>
       <c r="N1180" s="1"/>
       <c r="O1180" s="1"/>
       <c r="P1180" s="1"/>
     </row>
-    <row r="1181" spans="13:16" ht="14.5">
+    <row r="1181" spans="13:16" ht="14.35">
       <c r="M1181" s="1"/>
       <c r="N1181" s="1"/>
       <c r="O1181" s="1"/>
       <c r="P1181" s="1"/>
     </row>
-    <row r="1182" spans="13:16" ht="14.5">
+    <row r="1182" spans="13:16" ht="14.35">
       <c r="M1182" s="1"/>
       <c r="N1182" s="1"/>
       <c r="O1182" s="1"/>
       <c r="P1182" s="1"/>
     </row>
-    <row r="1183" spans="13:16" ht="14.5">
+    <row r="1183" spans="13:16" ht="14.35">
       <c r="M1183" s="1"/>
       <c r="N1183" s="1"/>
       <c r="O1183" s="1"/>
       <c r="P1183" s="1"/>
     </row>
-    <row r="1184" spans="13:16" ht="14.5">
+    <row r="1184" spans="13:16" ht="14.35">
       <c r="M1184" s="1"/>
       <c r="N1184" s="1"/>
       <c r="O1184" s="1"/>
       <c r="P1184" s="1"/>
     </row>
-    <row r="1185" spans="13:16" ht="14.5">
+    <row r="1185" spans="13:16" ht="14.35">
       <c r="M1185" s="1"/>
       <c r="N1185" s="1"/>
       <c r="O1185" s="1"/>
       <c r="P1185" s="1"/>
     </row>
-    <row r="1186" spans="13:16" ht="14.5">
+    <row r="1186" spans="13:16" ht="14.35">
       <c r="M1186" s="1"/>
       <c r="N1186" s="1"/>
       <c r="O1186" s="1"/>
       <c r="P1186" s="1"/>
     </row>
-    <row r="1187" spans="13:16" ht="14.5">
+    <row r="1187" spans="13:16" ht="14.35">
       <c r="M1187" s="1"/>
       <c r="N1187" s="1"/>
       <c r="O1187" s="1"/>
       <c r="P1187" s="1"/>
     </row>
-    <row r="1188" spans="13:16" ht="14.5">
+    <row r="1188" spans="13:16" ht="14.35">
       <c r="M1188" s="1"/>
       <c r="N1188" s="1"/>
       <c r="O1188" s="1"/>
       <c r="P1188" s="1"/>
     </row>
-    <row r="1189" spans="13:16" ht="14.5">
+    <row r="1189" spans="13:16" ht="14.35">
       <c r="M1189" s="1"/>
       <c r="N1189" s="1"/>
       <c r="O1189" s="1"/>
       <c r="P1189" s="1"/>
     </row>
-    <row r="1190" spans="13:16" ht="14.5">
+    <row r="1190" spans="13:16" ht="14.35">
       <c r="M1190" s="1"/>
       <c r="N1190" s="1"/>
       <c r="O1190" s="1"/>
       <c r="P1190" s="1"/>
     </row>
-    <row r="1191" spans="13:16" ht="14.5">
+    <row r="1191" spans="13:16" ht="14.35">
       <c r="M1191" s="1"/>
       <c r="N1191" s="1"/>
       <c r="O1191" s="1"/>
       <c r="P1191" s="1"/>
     </row>
-    <row r="1192" spans="13:16" ht="14.5">
+    <row r="1192" spans="13:16" ht="14.35">
       <c r="M1192" s="1"/>
       <c r="N1192" s="1"/>
       <c r="O1192" s="1"/>
       <c r="P1192" s="1"/>
     </row>
-    <row r="1193" spans="13:16" ht="14.5">
+    <row r="1193" spans="13:16" ht="14.35">
       <c r="M1193" s="1"/>
       <c r="N1193" s="1"/>
       <c r="O1193" s="1"/>
       <c r="P1193" s="1"/>
     </row>
-    <row r="1194" spans="13:16" ht="14.5">
+    <row r="1194" spans="13:16" ht="14.35">
       <c r="M1194" s="1"/>
       <c r="N1194" s="1"/>
       <c r="O1194" s="1"/>
       <c r="P1194" s="1"/>
     </row>
-    <row r="1195" spans="13:16" ht="14.5">
+    <row r="1195" spans="13:16" ht="14.35">
       <c r="M1195" s="1"/>
       <c r="N1195" s="1"/>
       <c r="O1195" s="1"/>
       <c r="P1195" s="1"/>
     </row>
-    <row r="1196" spans="13:16" ht="14.5">
+    <row r="1196" spans="13:16" ht="14.35">
       <c r="M1196" s="1"/>
       <c r="N1196" s="1"/>
       <c r="O1196" s="1"/>
       <c r="P1196" s="1"/>
     </row>
-    <row r="1197" spans="13:16" ht="14.5">
+    <row r="1197" spans="13:16" ht="14.35">
       <c r="M1197" s="1"/>
       <c r="N1197" s="1"/>
       <c r="O1197" s="1"/>
       <c r="P1197" s="1"/>
     </row>
-    <row r="1198" spans="13:16" ht="14.5">
+    <row r="1198" spans="13:16" ht="14.35">
       <c r="M1198" s="1"/>
       <c r="N1198" s="1"/>
       <c r="O1198" s="1"/>
       <c r="P1198" s="1"/>
     </row>
-    <row r="1199" spans="13:16" ht="14.5">
+    <row r="1199" spans="13:16" ht="14.35">
       <c r="M1199" s="1"/>
       <c r="N1199" s="1"/>
       <c r="O1199" s="1"/>
       <c r="P1199" s="1"/>
     </row>
-    <row r="1200" spans="13:16" ht="14.5">
+    <row r="1200" spans="13:16" ht="14.35">
       <c r="M1200" s="1"/>
       <c r="N1200" s="1"/>
       <c r="O1200" s="1"/>
       <c r="P1200" s="1"/>
     </row>
-    <row r="1201" spans="13:16" ht="14.5">
+    <row r="1201" spans="13:16" ht="14.35">
       <c r="M1201" s="1"/>
       <c r="N1201" s="1"/>
       <c r="O1201" s="1"/>
       <c r="P1201" s="1"/>
     </row>
-    <row r="1202" spans="13:16" ht="14.5">
+    <row r="1202" spans="13:16" ht="14.35">
       <c r="M1202" s="1"/>
       <c r="N1202" s="1"/>
       <c r="O1202" s="1"/>
       <c r="P1202" s="1"/>
     </row>
-    <row r="1203" spans="13:16" ht="14.5">
+    <row r="1203" spans="13:16" ht="14.35">
       <c r="M1203" s="1"/>
       <c r="N1203" s="1"/>
       <c r="O1203" s="1"/>
       <c r="P1203" s="1"/>
     </row>
-    <row r="1204" spans="13:16" ht="14.5">
+    <row r="1204" spans="13:16" ht="14.35">
       <c r="M1204" s="1"/>
       <c r="N1204" s="1"/>
       <c r="O1204" s="1"/>
       <c r="P1204" s="1"/>
     </row>
-    <row r="1205" spans="13:16" ht="14.5">
+    <row r="1205" spans="13:16" ht="14.35">
       <c r="M1205" s="1"/>
       <c r="N1205" s="1"/>
       <c r="O1205" s="1"/>
       <c r="P1205" s="1"/>
     </row>
-    <row r="1206" spans="13:16" ht="14.5">
+    <row r="1206" spans="13:16" ht="14.35">
       <c r="M1206" s="1"/>
       <c r="N1206" s="1"/>
       <c r="O1206" s="1"/>
       <c r="P1206" s="1"/>
     </row>
-    <row r="1207" spans="13:16" ht="14.5">
+    <row r="1207" spans="13:16" ht="14.35">
       <c r="M1207" s="1"/>
       <c r="N1207" s="1"/>
       <c r="O1207" s="1"/>
       <c r="P1207" s="1"/>
     </row>
-    <row r="1208" spans="13:16" ht="14.5">
+    <row r="1208" spans="13:16" ht="14.35">
       <c r="M1208" s="1"/>
       <c r="N1208" s="1"/>
       <c r="O1208" s="1"/>
       <c r="P1208" s="1"/>
     </row>
-    <row r="1209" spans="13:16" ht="14.5">
+    <row r="1209" spans="13:16" ht="14.35">
       <c r="M1209" s="1"/>
       <c r="N1209" s="1"/>
       <c r="O1209" s="1"/>
       <c r="P1209" s="1"/>
     </row>
-    <row r="1210" spans="13:16" ht="14.5">
+    <row r="1210" spans="13:16" ht="14.35">
       <c r="M1210" s="1"/>
       <c r="N1210" s="1"/>
       <c r="O1210" s="1"/>
       <c r="P1210" s="1"/>
     </row>
-    <row r="1211" spans="13:16" ht="14.5">
+    <row r="1211" spans="13:16" ht="14.35">
       <c r="M1211" s="1"/>
       <c r="N1211" s="1"/>
       <c r="O1211" s="1"/>
       <c r="P1211" s="1"/>
     </row>
-    <row r="1212" spans="13:16" ht="14.5">
+    <row r="1212" spans="13:16" ht="14.35">
       <c r="M1212" s="1"/>
       <c r="N1212" s="1"/>
       <c r="O1212" s="1"/>
       <c r="P1212" s="1"/>
     </row>
-    <row r="1213" spans="13:16" ht="14.5">
+    <row r="1213" spans="13:16" ht="14.35">
       <c r="M1213" s="1"/>
       <c r="N1213" s="1"/>
       <c r="O1213" s="1"/>
       <c r="P1213" s="1"/>
     </row>
-    <row r="1214" spans="13:16" ht="14.5">
+    <row r="1214" spans="13:16" ht="14.35">
       <c r="M1214" s="1"/>
       <c r="N1214" s="1"/>
       <c r="O1214" s="1"/>
       <c r="P1214" s="1"/>
     </row>
-    <row r="1215" spans="13:16" ht="14.5">
+    <row r="1215" spans="13:16" ht="14.35">
       <c r="M1215" s="1"/>
       <c r="N1215" s="1"/>
       <c r="O1215" s="1"/>
       <c r="P1215" s="1"/>
     </row>
-    <row r="1216" spans="13:16" ht="14.5">
+    <row r="1216" spans="13:16" ht="14.35">
       <c r="M1216" s="1"/>
       <c r="N1216" s="1"/>
       <c r="O1216" s="1"/>
       <c r="P1216" s="1"/>
     </row>
-    <row r="1217" spans="13:16" ht="14.5">
+    <row r="1217" spans="13:16" ht="14.35">
       <c r="M1217" s="1"/>
       <c r="N1217" s="1"/>
       <c r="O1217" s="1"/>
       <c r="P1217" s="1"/>
     </row>
-    <row r="1218" spans="13:16" ht="14.5">
+    <row r="1218" spans="13:16" ht="14.35">
       <c r="M1218" s="1"/>
       <c r="N1218" s="1"/>
       <c r="O1218" s="1"/>
       <c r="P1218" s="1"/>
     </row>
-    <row r="1219" spans="13:16" ht="14.5">
+    <row r="1219" spans="13:16" ht="14.35">
       <c r="M1219" s="1"/>
       <c r="N1219" s="1"/>
       <c r="O1219" s="1"/>
       <c r="P1219" s="1"/>
     </row>
-    <row r="1220" spans="13:16" ht="14.5">
+    <row r="1220" spans="13:16" ht="14.35">
       <c r="M1220" s="1"/>
       <c r="N1220" s="1"/>
       <c r="O1220" s="1"/>
       <c r="P1220" s="1"/>
     </row>
-    <row r="1221" spans="13:16" ht="14.5">
+    <row r="1221" spans="13:16" ht="14.35">
       <c r="M1221" s="1"/>
       <c r="N1221" s="1"/>
       <c r="O1221" s="1"/>
       <c r="P1221" s="1"/>
     </row>
-    <row r="1222" spans="13:16" ht="14.5">
+    <row r="1222" spans="13:16" ht="14.35">
       <c r="M1222" s="1"/>
       <c r="N1222" s="1"/>
       <c r="O1222" s="1"/>
       <c r="P1222" s="1"/>
     </row>
-    <row r="1223" spans="13:16" ht="14.5">
+    <row r="1223" spans="13:16" ht="14.35">
       <c r="M1223" s="1"/>
       <c r="N1223" s="1"/>
       <c r="O1223" s="1"/>
       <c r="P1223" s="1"/>
     </row>
-    <row r="1224" spans="13:16" ht="14.5">
+    <row r="1224" spans="13:16" ht="14.35">
       <c r="M1224" s="1"/>
       <c r="N1224" s="1"/>
       <c r="O1224" s="1"/>
       <c r="P1224" s="1"/>
     </row>
-    <row r="1225" spans="13:16" ht="14.5">
+    <row r="1225" spans="13:16" ht="14.35">
       <c r="M1225" s="1"/>
       <c r="N1225" s="1"/>
       <c r="O1225" s="1"/>
       <c r="P1225" s="1"/>
     </row>
-    <row r="1226" spans="13:16" ht="14.5">
+    <row r="1226" spans="13:16" ht="14.35">
       <c r="M1226" s="1"/>
       <c r="N1226" s="1"/>
       <c r="O1226" s="1"/>
       <c r="P1226" s="1"/>
     </row>
-    <row r="1227" spans="13:16" ht="14.5">
+    <row r="1227" spans="13:16" ht="14.35">
       <c r="M1227" s="1"/>
       <c r="N1227" s="1"/>
       <c r="O1227" s="1"/>
       <c r="P1227" s="1"/>
     </row>
-    <row r="1228" spans="13:16" ht="14.5">
+    <row r="1228" spans="13:16" ht="14.35">
       <c r="M1228" s="1"/>
       <c r="N1228" s="1"/>
       <c r="O1228" s="1"/>
       <c r="P1228" s="1"/>
     </row>
-    <row r="1229" spans="13:16" ht="14.5">
+    <row r="1229" spans="13:16" ht="14.35">
       <c r="M1229" s="1"/>
       <c r="N1229" s="1"/>
       <c r="O1229" s="1"/>
       <c r="P1229" s="1"/>
     </row>
-    <row r="1230" spans="13:16" ht="14.5">
+    <row r="1230" spans="13:16" ht="14.35">
       <c r="M1230" s="1"/>
       <c r="N1230" s="1"/>
       <c r="O1230" s="1"/>
       <c r="P1230" s="1"/>
     </row>
-    <row r="1231" spans="13:16" ht="14.5">
+    <row r="1231" spans="13:16" ht="14.35">
       <c r="M1231" s="1"/>
       <c r="N1231" s="1"/>
       <c r="O1231" s="1"/>
       <c r="P1231" s="1"/>
     </row>
-    <row r="1232" spans="13:16" ht="14.5">
+    <row r="1232" spans="13:16" ht="14.35">
       <c r="M1232" s="1"/>
       <c r="N1232" s="1"/>
       <c r="O1232" s="1"/>
       <c r="P1232" s="1"/>
     </row>
-    <row r="1233" spans="13:16" ht="14.5">
+    <row r="1233" spans="13:16" ht="14.35">
       <c r="M1233" s="1"/>
       <c r="N1233" s="1"/>
       <c r="O1233" s="1"/>
       <c r="P1233" s="1"/>
     </row>
-    <row r="1234" spans="13:16" ht="14.5">
+    <row r="1234" spans="13:16" ht="14.35">
       <c r="M1234" s="1"/>
       <c r="N1234" s="1"/>
       <c r="O1234" s="1"/>
       <c r="P1234" s="1"/>
     </row>
-    <row r="1235" spans="13:16" ht="14.5">
+    <row r="1235" spans="13:16" ht="14.35">
       <c r="M1235" s="1"/>
       <c r="N1235" s="1"/>
       <c r="O1235" s="1"/>
       <c r="P1235" s="1"/>
     </row>
-    <row r="1236" spans="13:16" ht="14.5">
+    <row r="1236" spans="13:16" ht="14.35">
       <c r="M1236" s="1"/>
       <c r="N1236" s="1"/>
       <c r="O1236" s="1"/>
       <c r="P1236" s="1"/>
     </row>
-    <row r="1237" spans="13:16" ht="14.5">
+    <row r="1237" spans="13:16" ht="14.35">
       <c r="M1237" s="1"/>
       <c r="N1237" s="1"/>
       <c r="O1237" s="1"/>
       <c r="P1237" s="1"/>
     </row>
-    <row r="1238" spans="13:16" ht="14.5">
+    <row r="1238" spans="13:16" ht="14.35">
       <c r="M1238" s="1"/>
       <c r="N1238" s="1"/>
       <c r="O1238" s="1"/>
       <c r="P1238" s="1"/>
     </row>
-    <row r="1239" spans="13:16" ht="14.5">
+    <row r="1239" spans="13:16" ht="14.35">
       <c r="M1239" s="1"/>
       <c r="N1239" s="1"/>
       <c r="O1239" s="1"/>
       <c r="P1239" s="1"/>
     </row>
-    <row r="1240" spans="13:16" ht="14.5">
+    <row r="1240" spans="13:16" ht="14.35">
       <c r="M1240" s="1"/>
       <c r="N1240" s="1"/>
       <c r="O1240" s="1"/>
       <c r="P1240" s="1"/>
     </row>
-    <row r="1241" spans="13:16" ht="14.5">
+    <row r="1241" spans="13:16" ht="14.35">
       <c r="M1241" s="1"/>
       <c r="N1241" s="1"/>
       <c r="O1241" s="1"/>
       <c r="P1241" s="1"/>
     </row>
-    <row r="1242" spans="13:16" ht="14.5">
+    <row r="1242" spans="13:16" ht="14.35">
       <c r="M1242" s="1"/>
       <c r="N1242" s="1"/>
       <c r="O1242" s="1"/>
       <c r="P1242" s="1"/>
     </row>
-    <row r="1243" spans="13:16" ht="14.5">
+    <row r="1243" spans="13:16" ht="14.35">
       <c r="M1243" s="1"/>
       <c r="N1243" s="1"/>
       <c r="O1243" s="1"/>
       <c r="P1243" s="1"/>
     </row>
-    <row r="1244" spans="13:16" ht="14.5">
+    <row r="1244" spans="13:16" ht="14.35">
       <c r="M1244" s="1"/>
       <c r="N1244" s="1"/>
       <c r="O1244" s="1"/>
       <c r="P1244" s="1"/>
     </row>
-    <row r="1245" spans="13:16" ht="14.5">
+    <row r="1245" spans="13:16" ht="14.35">
       <c r="M1245" s="1"/>
       <c r="N1245" s="1"/>
       <c r="O1245" s="1"/>
       <c r="P1245" s="1"/>
     </row>
-    <row r="1246" spans="13:16" ht="14.5">
+    <row r="1246" spans="13:16" ht="14.35">
       <c r="M1246" s="1"/>
       <c r="N1246" s="1"/>
       <c r="O1246" s="1"/>
       <c r="P1246" s="1"/>
     </row>
-    <row r="1247" spans="13:16" ht="14.5">
+    <row r="1247" spans="13:16" ht="14.35">
       <c r="M1247" s="1"/>
       <c r="N1247" s="1"/>
       <c r="O1247" s="1"/>
       <c r="P1247" s="1"/>
     </row>
-    <row r="1248" spans="13:16" ht="14.5">
+    <row r="1248" spans="13:16" ht="14.35">
       <c r="M1248" s="1"/>
       <c r="N1248" s="1"/>
       <c r="O1248" s="1"/>
       <c r="P1248" s="1"/>
     </row>
-    <row r="1249" spans="13:16" ht="14.5">
+    <row r="1249" spans="13:16" ht="14.35">
       <c r="M1249" s="1"/>
       <c r="N1249" s="1"/>
       <c r="O1249" s="1"/>
       <c r="P1249" s="1"/>
     </row>
-    <row r="1250" spans="13:16" ht="14.5">
+    <row r="1250" spans="13:16" ht="14.35">
       <c r="M1250" s="1"/>
       <c r="N1250" s="1"/>
       <c r="O1250" s="1"/>
       <c r="P1250" s="1"/>
     </row>
-    <row r="1251" spans="13:16" ht="14.5">
+    <row r="1251" spans="13:16" ht="14.35">
       <c r="M1251" s="1"/>
       <c r="N1251" s="1"/>
       <c r="O1251" s="1"/>
       <c r="P1251" s="1"/>
     </row>
-    <row r="1252" spans="13:16" ht="14.5">
+    <row r="1252" spans="13:16" ht="14.35">
       <c r="M1252" s="1"/>
       <c r="N1252" s="1"/>
       <c r="O1252" s="1"/>
       <c r="P1252" s="1"/>
     </row>
-    <row r="1253" spans="13:16" ht="14.5">
+    <row r="1253" spans="13:16" ht="14.35">
       <c r="M1253" s="1"/>
       <c r="N1253" s="1"/>
       <c r="O1253" s="1"/>
       <c r="P1253" s="1"/>
     </row>
-    <row r="1254" spans="13:16" ht="14.5">
+    <row r="1254" spans="13:16" ht="14.35">
       <c r="M1254" s="1"/>
       <c r="N1254" s="1"/>
       <c r="O1254" s="1"/>
       <c r="P1254" s="1"/>
     </row>
-    <row r="1255" spans="13:16" ht="14.5">
+    <row r="1255" spans="13:16" ht="14.35">
       <c r="M1255" s="1"/>
       <c r="N1255" s="1"/>
       <c r="O1255" s="1"/>
       <c r="P1255" s="1"/>
     </row>
-    <row r="1256" spans="13:16" ht="14.5">
+    <row r="1256" spans="13:16" ht="14.35">
       <c r="M1256" s="1"/>
       <c r="N1256" s="1"/>
       <c r="O1256" s="1"/>
       <c r="P1256" s="1"/>
     </row>
-    <row r="1257" spans="13:16" ht="14.5">
+    <row r="1257" spans="13:16" ht="14.35">
       <c r="M1257" s="1"/>
       <c r="N1257" s="1"/>
       <c r="O1257" s="1"/>
       <c r="P1257" s="1"/>
     </row>
-    <row r="1258" spans="13:16" ht="14.5">
+    <row r="1258" spans="13:16" ht="14.35">
       <c r="M1258" s="1"/>
       <c r="N1258" s="1"/>
       <c r="O1258" s="1"/>
       <c r="P1258" s="1"/>
     </row>
-    <row r="1259" spans="13:16" ht="14.5">
+    <row r="1259" spans="13:16" ht="14.35">
       <c r="M1259" s="1"/>
       <c r="N1259" s="1"/>
       <c r="O1259" s="1"/>
       <c r="P1259" s="1"/>
     </row>
-    <row r="1260" spans="13:16" ht="14.5">
+    <row r="1260" spans="13:16" ht="14.35">
       <c r="M1260" s="1"/>
       <c r="N1260" s="1"/>
       <c r="O1260" s="1"/>
       <c r="P1260" s="1"/>
     </row>
-    <row r="1261" spans="13:16" ht="14.5">
+    <row r="1261" spans="13:16" ht="14.35">
       <c r="M1261" s="1"/>
       <c r="N1261" s="1"/>
       <c r="O1261" s="1"/>
       <c r="P1261" s="1"/>
     </row>
-    <row r="1262" spans="13:16" ht="14.5">
+    <row r="1262" spans="13:16" ht="14.35">
       <c r="M1262" s="1"/>
       <c r="N1262" s="1"/>
       <c r="O1262" s="1"/>
       <c r="P1262" s="1"/>
     </row>
-    <row r="1263" spans="13:16" ht="14.5">
+    <row r="1263" spans="13:16" ht="14.35">
       <c r="M1263" s="1"/>
       <c r="N1263" s="1"/>
       <c r="O1263" s="1"/>
       <c r="P1263" s="1"/>
     </row>
-    <row r="1264" spans="13:16" ht="14.5">
+    <row r="1264" spans="13:16" ht="14.35">
       <c r="M1264" s="1"/>
       <c r="N1264" s="1"/>
       <c r="O1264" s="1"/>
       <c r="P1264" s="1"/>
     </row>
-    <row r="1265" spans="13:16" ht="14.5">
+    <row r="1265" spans="13:16" ht="14.35">
       <c r="M1265" s="1"/>
       <c r="N1265" s="1"/>
       <c r="O1265" s="1"/>
       <c r="P1265" s="1"/>
     </row>
-    <row r="1266" spans="13:16" ht="14.5">
+    <row r="1266" spans="13:16" ht="14.35">
       <c r="M1266" s="1"/>
       <c r="N1266" s="1"/>
       <c r="O1266" s="1"/>
       <c r="P1266" s="1"/>
     </row>
-    <row r="1267" spans="13:16" ht="14.5">
+    <row r="1267" spans="13:16" ht="14.35">
       <c r="M1267" s="1"/>
       <c r="N1267" s="1"/>
       <c r="O1267" s="1"/>
       <c r="P1267" s="1"/>
     </row>
-    <row r="1268" spans="13:16" ht="14.5">
+    <row r="1268" spans="13:16" ht="14.35">
       <c r="M1268" s="1"/>
       <c r="N1268" s="1"/>
       <c r="O1268" s="1"/>
       <c r="P1268" s="1"/>
     </row>
-    <row r="1269" spans="13:16" ht="14.5">
+    <row r="1269" spans="13:16" ht="14.35">
       <c r="M1269" s="1"/>
       <c r="N1269" s="1"/>
       <c r="O1269" s="1"/>
       <c r="P1269" s="1"/>
     </row>
-    <row r="1270" spans="13:16" ht="14.5">
+    <row r="1270" spans="13:16" ht="14.35">
       <c r="M1270" s="1"/>
       <c r="N1270" s="1"/>
       <c r="O1270" s="1"/>
       <c r="P1270" s="1"/>
     </row>
-    <row r="1271" spans="13:16" ht="14.5">
+    <row r="1271" spans="13:16" ht="14.35">
       <c r="M1271" s="1"/>
       <c r="N1271" s="1"/>
       <c r="O1271" s="1"/>
       <c r="P1271" s="1"/>
     </row>
-    <row r="1272" spans="13:16" ht="14.5">
+    <row r="1272" spans="13:16" ht="14.35">
       <c r="M1272" s="1"/>
       <c r="N1272" s="1"/>
       <c r="O1272" s="1"/>
       <c r="P1272" s="1"/>
     </row>
-    <row r="1273" spans="13:16" ht="14.5">
+    <row r="1273" spans="13:16" ht="14.35">
       <c r="M1273" s="1"/>
       <c r="N1273" s="1"/>
       <c r="O1273" s="1"/>
       <c r="P1273" s="1"/>
     </row>
-    <row r="1274" spans="13:16" ht="14.5">
+    <row r="1274" spans="13:16" ht="14.35">
       <c r="M1274" s="1"/>
       <c r="N1274" s="1"/>
       <c r="O1274" s="1"/>
       <c r="P1274" s="1"/>
     </row>
-    <row r="1275" spans="13:16" ht="14.5">
+    <row r="1275" spans="13:16" ht="14.35">
       <c r="M1275" s="1"/>
       <c r="N1275" s="1"/>
       <c r="O1275" s="1"/>
       <c r="P1275" s="1"/>
     </row>
-    <row r="1276" spans="13:16" ht="14.5">
+    <row r="1276" spans="13:16" ht="14.35">
       <c r="M1276" s="1"/>
       <c r="N1276" s="1"/>
       <c r="O1276" s="1"/>
       <c r="P1276" s="1"/>
     </row>
-    <row r="1277" spans="13:16" ht="14.5">
+    <row r="1277" spans="13:16" ht="14.35">
       <c r="M1277" s="1"/>
       <c r="N1277" s="1"/>
       <c r="O1277" s="1"/>
       <c r="P1277" s="1"/>
     </row>
-    <row r="1278" spans="13:16" ht="14.5">
+    <row r="1278" spans="13:16" ht="14.35">
       <c r="M1278" s="1"/>
       <c r="N1278" s="1"/>
       <c r="O1278" s="1"/>
       <c r="P1278" s="1"/>
     </row>
-    <row r="1279" spans="13:16" ht="14.5">
+    <row r="1279" spans="13:16" ht="14.35">
       <c r="M1279" s="1"/>
       <c r="N1279" s="1"/>
       <c r="O1279" s="1"/>
       <c r="P1279" s="1"/>
     </row>
-    <row r="1280" spans="13:16" ht="14.5">
+    <row r="1280" spans="13:16" ht="14.35">
       <c r="M1280" s="1"/>
       <c r="N1280" s="1"/>
       <c r="O1280" s="1"/>
       <c r="P1280" s="1"/>
     </row>
-    <row r="1281" spans="13:16" ht="14.5">
+    <row r="1281" spans="13:16" ht="14.35">
       <c r="M1281" s="1"/>
       <c r="N1281" s="1"/>
       <c r="O1281" s="1"/>
       <c r="P1281" s="1"/>
     </row>
-    <row r="1282" spans="13:16" ht="14.5">
+    <row r="1282" spans="13:16" ht="14.35">
       <c r="M1282" s="1"/>
       <c r="N1282" s="1"/>
       <c r="O1282" s="1"/>
       <c r="P1282" s="1"/>
     </row>
-    <row r="1283" spans="13:16" ht="14.5">
+    <row r="1283" spans="13:16" ht="14.35">
       <c r="M1283" s="1"/>
       <c r="N1283" s="1"/>
       <c r="O1283" s="1"/>
       <c r="P1283" s="1"/>
     </row>
-    <row r="1284" spans="13:16" ht="14.5">
+    <row r="1284" spans="13:16" ht="14.35">
       <c r="M1284" s="1"/>
       <c r="N1284" s="1"/>
       <c r="O1284" s="1"/>
       <c r="P1284" s="1"/>
     </row>
-    <row r="1285" spans="13:16" ht="14.5">
+    <row r="1285" spans="13:16" ht="14.35">
       <c r="M1285" s="1"/>
       <c r="N1285" s="1"/>
       <c r="O1285" s="1"/>
       <c r="P1285" s="1"/>
     </row>
-    <row r="1286" spans="13:16" ht="14.5">
+    <row r="1286" spans="13:16" ht="14.35">
       <c r="M1286" s="1"/>
       <c r="N1286" s="1"/>
       <c r="O1286" s="1"/>
       <c r="P1286" s="1"/>
     </row>
-    <row r="1287" spans="13:16" ht="14.5">
+    <row r="1287" spans="13:16" ht="14.35">
       <c r="M1287" s="1"/>
       <c r="N1287" s="1"/>
       <c r="O1287" s="1"/>
       <c r="P1287" s="1"/>
     </row>
-    <row r="1288" spans="13:16" ht="14.5">
+    <row r="1288" spans="13:16" ht="14.35">
       <c r="M1288" s="1"/>
       <c r="N1288" s="1"/>
       <c r="O1288" s="1"/>
       <c r="P1288" s="1"/>
     </row>
-    <row r="1289" spans="13:16" ht="14.5">
+    <row r="1289" spans="13:16" ht="14.35">
       <c r="M1289" s="1"/>
       <c r="N1289" s="1"/>
       <c r="O1289" s="1"/>
       <c r="P1289" s="1"/>
     </row>
-    <row r="1290" spans="13:16" ht="14.5">
+    <row r="1290" spans="13:16" ht="14.35">
       <c r="M1290" s="1"/>
       <c r="N1290" s="1"/>
       <c r="O1290" s="1"/>
       <c r="P1290" s="1"/>
     </row>
-    <row r="1291" spans="13:16" ht="14.5">
+    <row r="1291" spans="13:16" ht="14.35">
       <c r="M1291" s="1"/>
       <c r="N1291" s="1"/>
       <c r="O1291" s="1"/>
       <c r="P1291" s="1"/>
     </row>
-    <row r="1292" spans="13:16" ht="14.5">
+    <row r="1292" spans="13:16" ht="14.35">
       <c r="M1292" s="1"/>
       <c r="N1292" s="1"/>
       <c r="O1292" s="1"/>
       <c r="P1292" s="1"/>
     </row>
-    <row r="1293" spans="13:16" ht="14.5">
+    <row r="1293" spans="13:16" ht="14.35">
       <c r="M1293" s="1"/>
       <c r="N1293" s="1"/>
       <c r="O1293" s="1"/>
       <c r="P1293" s="1"/>
     </row>
-    <row r="1294" spans="13:16" ht="14.5">
+    <row r="1294" spans="13:16" ht="14.35">
       <c r="M1294" s="1"/>
       <c r="N1294" s="1"/>
       <c r="O1294" s="1"/>
       <c r="P1294" s="1"/>
     </row>
-    <row r="1295" spans="13:16" ht="14.5">
+    <row r="1295" spans="13:16" ht="14.35">
       <c r="M1295" s="1"/>
       <c r="N1295" s="1"/>
       <c r="O1295" s="1"/>
@@ -24220,6 +24268,7 @@
       <c r="P1299" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:M334" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:L2"/>
   </mergeCells>
@@ -24497,8 +24546,9 @@
     <hyperlink ref="L331" r:id="rId271" xr:uid="{753D426D-4EA0-445D-9B6A-05CA0DA54193}"/>
     <hyperlink ref="L332" r:id="rId272" xr:uid="{60496F4F-3DA5-4995-A082-7E32BE0637D5}"/>
     <hyperlink ref="L333" r:id="rId273" xr:uid="{ED4637BA-6362-4F4D-97F5-8F07E357FA99}"/>
+    <hyperlink ref="L334" r:id="rId274" xr:uid="{B7001874-4017-4749-BCEC-2B68A3FDF71B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId274"/>
+  <pageSetup orientation="portrait" r:id="rId275"/>
 </worksheet>
 </file>